--- a/xsd/keywords.xlsx
+++ b/xsd/keywords.xlsx
@@ -3244,21 +3244,21 @@
     <t>Brand</t>
   </si>
   <si>
+    <t>PKP</t>
+  </si>
+  <si>
+    <t>PII</t>
+  </si>
+  <si>
+    <t>QCN</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
     <t>RAD</t>
   </si>
   <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>PII</t>
-  </si>
-  <si>
-    <t>QCN</t>
-  </si>
-  <si>
-    <t>PKP</t>
-  </si>
-  <si>
     <t>Hotel Name</t>
   </si>
   <si>
@@ -6901,2983 +6901,2983 @@
     <t>Room Name</t>
   </si>
   <si>
+    <t>Executive Double Room-River View</t>
+  </si>
+  <si>
+    <t>Guest Room-2Q</t>
+  </si>
+  <si>
+    <t>Suite with Balcony</t>
+  </si>
+  <si>
+    <t>Executive Twin Studio</t>
+  </si>
+  <si>
+    <t>Family Studio with King Bed &amp;amp; Bunk Bed</t>
+  </si>
+  <si>
+    <t>Italian Guest Room</t>
+  </si>
+  <si>
+    <t>Business Room</t>
+  </si>
+  <si>
+    <t>Senior Suite</t>
+  </si>
+  <si>
+    <t>Economy room</t>
+  </si>
+  <si>
+    <t>JUNIOR SUITE</t>
+  </si>
+  <si>
+    <t>1 Bedroon Suite-2 Queen Beds-Oceanfront</t>
+  </si>
+  <si>
+    <t>Deluxe King Room - View of Square</t>
+  </si>
+  <si>
+    <t>Studio-Kitchen-Microwave-Balcony</t>
+  </si>
+  <si>
+    <t>Martinique Club Level Room</t>
+  </si>
+  <si>
+    <t>Premium Room St.Sophia Cathedral View</t>
+  </si>
+  <si>
+    <t>Superior Suite</t>
+  </si>
+  <si>
+    <t>Lodge Guest Room</t>
+  </si>
+  <si>
+    <t>Studio room</t>
+  </si>
+  <si>
+    <t>Superior Room - Old Town View</t>
+  </si>
+  <si>
+    <t>Premium Room-2 Queen Beds</t>
+  </si>
+  <si>
+    <t>Premium room</t>
+  </si>
+  <si>
+    <t>Premium Room-King Bed-Lakeview</t>
+  </si>
+  <si>
+    <t>Corner Suite with King Bed</t>
+  </si>
+  <si>
+    <t>Premium Room-2 Double Beds</t>
+  </si>
+  <si>
+    <t>Deluxe Room Taj Mahal View</t>
+  </si>
+  <si>
+    <t>2 Bedroom Suite-3 Queen Beds</t>
+  </si>
+  <si>
+    <t>Whirlpool Room-King Bed</t>
+  </si>
+  <si>
+    <t>Two Bedroom Executive Suite</t>
+  </si>
+  <si>
+    <t>Business Class-Studio King Bed</t>
+  </si>
+  <si>
+    <t>Collection Superior Room</t>
+  </si>
+  <si>
+    <t>Sea View Room</t>
+  </si>
+  <si>
+    <t>SINGLE GUEST ROOM</t>
+  </si>
+  <si>
+    <t>Two Bedroom Suite - One Bathroom</t>
+  </si>
+  <si>
+    <t>Club Regency Room</t>
+  </si>
+  <si>
+    <t>BUSINESS SUITE</t>
+  </si>
+  <si>
+    <t>Standard Room - City View</t>
+  </si>
+  <si>
+    <t>Studio Room-London Eye View</t>
+  </si>
+  <si>
+    <t>Suite - Planten un Blomen Park View</t>
+  </si>
+  <si>
+    <t>Whirlpool Fantasy Suite-Queen Bed</t>
+  </si>
+  <si>
+    <t>Premium One Bedroom App (2+2)</t>
+  </si>
+  <si>
+    <t>Aegean Executive Suite Private Pool</t>
+  </si>
+  <si>
+    <t>Standard Room - Balcony</t>
+  </si>
+  <si>
+    <t>One Bedroom Suite with Seaview</t>
+  </si>
+  <si>
+    <t>Executive Queen Room</t>
+  </si>
+  <si>
+    <t>Grand Deluxe Room</t>
+  </si>
+  <si>
+    <t>2 Bedroom Suite-Queen Bed</t>
+  </si>
+  <si>
+    <t>Studio Whirlpool Suite</t>
+  </si>
+  <si>
+    <t>1 Bedroom Suite-2 Queen Beds-Ocean View</t>
+  </si>
+  <si>
+    <t>Classic Guest Room</t>
+  </si>
+  <si>
+    <t>Superior Room - Lake View</t>
+  </si>
+  <si>
+    <t>Tower Suite</t>
+  </si>
+  <si>
+    <t>TOP FLOOR SUITE</t>
+  </si>
+  <si>
+    <t>Business Class-King Bed</t>
+  </si>
+  <si>
+    <t>Superior Room-Wi-Fi-Breakfast</t>
+  </si>
+  <si>
+    <t>Deluxe Suite-Living Room-Wi-Fi</t>
+  </si>
+  <si>
+    <t>Premium1 Bedroom Suite-2 Queen Beds</t>
+  </si>
+  <si>
+    <t>Urban Retro Suite - Balcony</t>
+  </si>
+  <si>
+    <t>Deluxe Room-Wi-Fi</t>
+  </si>
+  <si>
+    <t>Garden view Family Room</t>
+  </si>
+  <si>
+    <t>Business Class Lagoon View</t>
+  </si>
+  <si>
+    <t>1 Bedroom Apartment Suite-King Bed</t>
+  </si>
+  <si>
+    <t>2 Bed-Rooms Standard Apartment</t>
+  </si>
+  <si>
+    <t>Cabana</t>
+  </si>
+  <si>
+    <t>2 Room Suite-King Bed-2 Queen Beds</t>
+  </si>
+  <si>
+    <t>DUPLEX SUITE</t>
+  </si>
+  <si>
+    <t>Premium Room-2 King Beds</t>
+  </si>
+  <si>
+    <t>Studio Suite-King-Balcony</t>
+  </si>
+  <si>
+    <t>Junior Suite - Pool Access</t>
+  </si>
+  <si>
+    <t>1 Bdrm Poolside Ste-Fridge-Microwv</t>
+  </si>
+  <si>
+    <t>Business Class Suite-King Bed</t>
+  </si>
+  <si>
+    <t>Premium Guest Room - Exclusive Services</t>
+  </si>
+  <si>
+    <t>Junior Suite - Terrace &amp;amp; Lounge Access</t>
+  </si>
+  <si>
+    <t>Premium 1 Bedroom Suite-King Bed</t>
+  </si>
+  <si>
+    <t>Premium 2 Queen Beds</t>
+  </si>
+  <si>
+    <t>Executive Suite</t>
+  </si>
+  <si>
+    <t>Studio with View &amp;amp; 2 Twin Beds</t>
+  </si>
+  <si>
+    <t>Divan Suite</t>
+  </si>
+  <si>
+    <t>Sea View Royal Suite</t>
+  </si>
+  <si>
+    <t>Double Bed</t>
+  </si>
+  <si>
+    <t>Superior Deluxe Room</t>
+  </si>
+  <si>
+    <t>2 Bed-Rooms Superior Apartment</t>
+  </si>
+  <si>
+    <t>Guest Room-1 King</t>
+  </si>
+  <si>
+    <t>Standard Guest Room City Centre View</t>
+  </si>
+  <si>
+    <t>Royal Club Room</t>
+  </si>
+  <si>
+    <t>Premium Suite</t>
+  </si>
+  <si>
+    <t>Deluxe Room-Breakfast</t>
+  </si>
+  <si>
+    <t>Triple Room</t>
+  </si>
+  <si>
+    <t>Junior Suite Majestic</t>
+  </si>
+  <si>
+    <t>Business Class King Room</t>
+  </si>
+  <si>
+    <t>Family Sea View Room</t>
+  </si>
+  <si>
+    <t>Deluxe Sea View Room</t>
+  </si>
+  <si>
+    <t>Panoramic Suite - Marina View</t>
+  </si>
+  <si>
+    <t>Junior Suite with Sea View and  Balcony</t>
+  </si>
+  <si>
+    <t>Prive Room</t>
+  </si>
+  <si>
+    <t>One Bedroom Apartment - Balcony</t>
+  </si>
+  <si>
+    <t>Studio Twin</t>
+  </si>
+  <si>
+    <t>Studio Room</t>
+  </si>
+  <si>
+    <t>Seaview Room</t>
+  </si>
+  <si>
+    <t>Superior Room - Marina View</t>
+  </si>
+  <si>
+    <t>Premium 1 Bedroom Suite-2 Queen Beds</t>
+  </si>
+  <si>
+    <t>Grand Plaza Room</t>
+  </si>
+  <si>
+    <t>1 Bedroom Suite-King Bed-Lakeview</t>
+  </si>
+  <si>
+    <t>SPA Suite</t>
+  </si>
+  <si>
+    <t>Business Class-2 Twin Beds</t>
+  </si>
+  <si>
+    <t>1K- SMK- Deluxe Room</t>
+  </si>
+  <si>
+    <t>Single Standard Room</t>
+  </si>
+  <si>
+    <t>Crescent Room</t>
+  </si>
+  <si>
+    <t>Premium Room - Balcony</t>
+  </si>
+  <si>
+    <t>Executive Suite-WiFi-Airport Transfers</t>
+  </si>
+  <si>
+    <t>Family room</t>
+  </si>
+  <si>
+    <t>King Bed-Riverview</t>
+  </si>
+  <si>
+    <t>Superior Corner Room</t>
+  </si>
+  <si>
+    <t>Extended Stay Suite-1 King Bed</t>
+  </si>
+  <si>
+    <t>Meeting Suite</t>
+  </si>
+  <si>
+    <t>King Siz-Upgrade Amenities-Sleep Nmbr Bed</t>
+  </si>
+  <si>
+    <t>One Bedroom Spa Suite</t>
+  </si>
+  <si>
+    <t>Premium Suite-2 Double Beds</t>
+  </si>
+  <si>
+    <t>Superior Room - Fjord View</t>
+  </si>
+  <si>
+    <t>Grand Suite - Balcony &amp;amp; Lounge Access</t>
+  </si>
+  <si>
+    <t>Premium Room - Pool View &amp;amp; Balcony</t>
+  </si>
+  <si>
+    <t>Executive Business Class</t>
+  </si>
+  <si>
+    <t>One Bedroom Apartment</t>
+  </si>
+  <si>
+    <t>Two Bedroom Apartment</t>
+  </si>
+  <si>
+    <t>Standard Room-Sea Side</t>
+  </si>
+  <si>
+    <t>Family Stay: 2 Connected Rooms-City View</t>
+  </si>
+  <si>
+    <t>Business Class-King Bed-Ocean View</t>
+  </si>
+  <si>
+    <t>Standard Guest Room Majestic</t>
+  </si>
+  <si>
+    <t>Two Bedroom Duplex Suite</t>
+  </si>
+  <si>
+    <t>Townhouse</t>
+  </si>
+  <si>
+    <t>Palace Suite</t>
+  </si>
+  <si>
+    <t>Plaza Club Suite</t>
+  </si>
+  <si>
+    <t>Park View Suite</t>
+  </si>
+  <si>
+    <t>Superior Room - Panoramic Monts d'Or View</t>
+  </si>
+  <si>
+    <t>Premium Studio Suite-Queen Bed</t>
+  </si>
+  <si>
+    <t>Junior Suite - Panoramic City View</t>
+  </si>
+  <si>
+    <t>Hospitality Room-Murphy Bed</t>
+  </si>
+  <si>
+    <t>Sea View Suite</t>
+  </si>
+  <si>
+    <t>1 Bedroom Suite-King bed</t>
+  </si>
+  <si>
+    <t>Business Class Room</t>
+  </si>
+  <si>
+    <t>Superior Room King</t>
+  </si>
+  <si>
+    <t>Guest Room-Breakfast Buffet-WiFi</t>
+  </si>
+  <si>
+    <t>Garden View Room</t>
+  </si>
+  <si>
+    <t>2 Bedroom Suite-Queen Bed-2 Twin Beds</t>
+  </si>
+  <si>
+    <t>Bosphorus Terrace Suite</t>
+  </si>
+  <si>
+    <t>Junior Suite - Lounge Access</t>
+  </si>
+  <si>
+    <t>Suite - Sea View &amp;amp; Lounge Access</t>
+  </si>
+  <si>
+    <t>King Bed-Horseshoe Falls View</t>
+  </si>
+  <si>
+    <t>Guest Room-Canal/Bay Vw-Balcony-WiFi</t>
+  </si>
+  <si>
+    <t>Suite - Balcony &amp;amp; Whirlpool</t>
+  </si>
+  <si>
+    <t>Deluxe Two Bed Room Residence Marina View</t>
+  </si>
+  <si>
+    <t>Premium 2 Double Beds</t>
+  </si>
+  <si>
+    <t>Standard Room City View</t>
+  </si>
+  <si>
+    <t>2 Bedroom Suite-2 Queens-1 King</t>
+  </si>
+  <si>
+    <t>Premium Park View Room</t>
+  </si>
+  <si>
+    <t>Paradise Suite</t>
+  </si>
+  <si>
+    <t>Business Class-2 Queen</t>
+  </si>
+  <si>
+    <t>Deluxe Pure White Room</t>
+  </si>
+  <si>
+    <t>Two Bedrooms Suite</t>
+  </si>
+  <si>
+    <t>Studio Suite-2 Queenss-Ocean-Non Smoking</t>
+  </si>
+  <si>
+    <t>Premium Room - High Floor</t>
+  </si>
+  <si>
+    <t>Studio Suite with separate bedroom</t>
+  </si>
+  <si>
+    <t>Premium Suite-King Bed</t>
+  </si>
+  <si>
+    <t>Pool View Chalet</t>
+  </si>
+  <si>
+    <t>King Bed-Exterior Entrance</t>
+  </si>
+  <si>
+    <t>Queen Bed - Accessible</t>
+  </si>
+  <si>
+    <t>Diplomatic Suite</t>
+  </si>
+  <si>
+    <t>Deluxe Room With Sea View and Balcony</t>
+  </si>
+  <si>
+    <t>Suite King Bed</t>
+  </si>
+  <si>
+    <t>Family Room Mountain View</t>
+  </si>
+  <si>
+    <t>Premium 1 Bedroom Suite-King and Queen</t>
+  </si>
+  <si>
+    <t>Premium 1 Bedroom Suite-2 Double Beds</t>
+  </si>
+  <si>
+    <t>Standard Double Room</t>
+  </si>
+  <si>
+    <t>Premium Room-King Bed</t>
+  </si>
+  <si>
+    <t>Aegean Royal Villa Private Pool, Sea View</t>
+  </si>
+  <si>
+    <t>Deluxe Room-Railway Station Transfer-Wi-F</t>
+  </si>
+  <si>
+    <t>Four Bedroom Suite</t>
+  </si>
+  <si>
+    <t>King Room</t>
+  </si>
+  <si>
+    <t>Superior Room - Countryside View</t>
+  </si>
+  <si>
+    <t>Standard Room - Pool Access</t>
+  </si>
+  <si>
+    <t>SUPERIOR ROOM</t>
+  </si>
+  <si>
+    <t>Twin Room</t>
+  </si>
+  <si>
+    <t>Premium Room - King Bed</t>
+  </si>
+  <si>
+    <t>Business Class</t>
+  </si>
+  <si>
+    <t>Family Room - Panoramic view</t>
+  </si>
+  <si>
+    <t>Junior Suite - River View</t>
+  </si>
+  <si>
+    <t>Studio Suite-Queen Bed-2 Twin Beds</t>
+  </si>
+  <si>
+    <t>1 Bedroom Suite-King Bed-Sofabed</t>
+  </si>
+  <si>
+    <t>Suite - Terrace</t>
+  </si>
+  <si>
+    <t>Executive Room-Courtyard</t>
+  </si>
+  <si>
+    <t>Studio Suite-King Bed-Sofabed</t>
+  </si>
+  <si>
+    <t>One Bedroom Apartment Classique</t>
+  </si>
+  <si>
+    <t>Family Stay - 2Connecting Rooms</t>
+  </si>
+  <si>
+    <t>1 Bedroom Suite-King Bed-Queen Bed</t>
+  </si>
+  <si>
+    <t>Premium Suite with Sea View and Terrace</t>
+  </si>
+  <si>
+    <t>2 Twin Beds-Non Smoking</t>
+  </si>
+  <si>
+    <t>FAMILY ROOM</t>
+  </si>
+  <si>
+    <t>Garden Courtyard Room</t>
+  </si>
+  <si>
+    <t>1 Bed-Room Superior Apartment With River</t>
+  </si>
+  <si>
+    <t>Studio Suite-2 King Size Beds</t>
+  </si>
+  <si>
+    <t>Six Bedroom Villa</t>
+  </si>
+  <si>
+    <t>1 Bedroom King Suite</t>
+  </si>
+  <si>
+    <t>Deluxe Room</t>
+  </si>
+  <si>
+    <t>2 Bedroom Suite-King Bed</t>
+  </si>
+  <si>
+    <t>Radisson Club</t>
+  </si>
+  <si>
+    <t>Premium Room - Garden View</t>
+  </si>
+  <si>
+    <t>Studio Suite-1 King Bed</t>
+  </si>
+  <si>
+    <t>Deluxe Courtyard Twin Room</t>
+  </si>
+  <si>
+    <t>1 Bdrm Suite-Microw-Fridge-Balcony-WiFi</t>
+  </si>
+  <si>
+    <t>Standard Room - Runway View</t>
+  </si>
+  <si>
+    <t>Hospitality Suite-2 Double Beds</t>
+  </si>
+  <si>
+    <t>Superior Room - Slope View</t>
+  </si>
+  <si>
+    <t>Superior Room- Balcony</t>
+  </si>
+  <si>
+    <t>Studio Suite-King Bed-Non Smoking</t>
+  </si>
+  <si>
+    <t>2 Double Beds-Riverview</t>
+  </si>
+  <si>
+    <t>Standard Guest Room</t>
+  </si>
+  <si>
+    <t>Junior Suite - City View</t>
+  </si>
+  <si>
+    <t>Garden View Guest Room</t>
+  </si>
+  <si>
+    <t>Hospitality Suite-King Bed</t>
+  </si>
+  <si>
+    <t>Garden View room</t>
+  </si>
+  <si>
+    <t>Premium Room - Panoramic View</t>
+  </si>
+  <si>
+    <t>Studio Suite-2 Queen Bed</t>
+  </si>
+  <si>
+    <t>Business Class Superior</t>
+  </si>
+  <si>
+    <t>Studio Suite-Queen and Full Bed</t>
+  </si>
+  <si>
+    <t>Superior King Room</t>
+  </si>
+  <si>
+    <t>Business Class Rooms</t>
+  </si>
+  <si>
+    <t>Superior Room-Complimentary Wi-fi</t>
+  </si>
+  <si>
+    <t>Extended Stay-Queen Bed</t>
+  </si>
+  <si>
+    <t>Premium Room- Panoramic lake &amp;amp; City View</t>
+  </si>
+  <si>
+    <t>Superior Room - Panoramic View</t>
+  </si>
+  <si>
+    <t>Studio Apartment Sea view</t>
+  </si>
+  <si>
+    <t>Double Bed - Single Room</t>
+  </si>
+  <si>
+    <t>Studio Spa Suite</t>
+  </si>
+  <si>
+    <t>1 Bedroom Suite-2 Queens Beds</t>
+  </si>
+  <si>
+    <t>Deluxe Room- Hill View</t>
+  </si>
+  <si>
+    <t>Radisson Suite</t>
+  </si>
+  <si>
+    <t>One Bedroom Apartment with Terrace</t>
+  </si>
+  <si>
+    <t>Princely Suite</t>
+  </si>
+  <si>
+    <t>Junior Suite - Old Town View</t>
+  </si>
+  <si>
+    <t>Junior Suite - Sauna</t>
+  </si>
+  <si>
+    <t>Executive Studio Room</t>
+  </si>
+  <si>
+    <t>Superior Room With City View</t>
+  </si>
+  <si>
+    <t>Superior Room - Alster View</t>
+  </si>
+  <si>
+    <t>Art Corner Room</t>
+  </si>
+  <si>
+    <t>City View Guest Room</t>
+  </si>
+  <si>
+    <t>Presidential Suite - Lounge Access</t>
+  </si>
+  <si>
+    <t>Suite - Two Bedrooms &amp;amp; Lounge Access</t>
+  </si>
+  <si>
+    <t>Superior Room with Sea view &amp;amp; Terrace</t>
+  </si>
+  <si>
+    <t>Classic Room 2 Queen Beds</t>
+  </si>
+  <si>
+    <t>Superior Guest Room-Biarritz View</t>
+  </si>
+  <si>
+    <t>Superior Room - Creek View &amp;amp; Balcony</t>
+  </si>
+  <si>
+    <t>Premium-King Bed</t>
+  </si>
+  <si>
+    <t>Superior Twin Room</t>
+  </si>
+  <si>
+    <t>Premium Whirlpool Suite-King Bed</t>
+  </si>
+  <si>
+    <t>Studio King</t>
+  </si>
+  <si>
+    <t>Executive Twin Room</t>
+  </si>
+  <si>
+    <t>CASPIAN GUEST ROOM</t>
+  </si>
+  <si>
+    <t>Superior Beachfront Room</t>
+  </si>
+  <si>
+    <t>Deluxe Room with City view and Balcony</t>
+  </si>
+  <si>
+    <t>Collection Premium Room - Sea View</t>
+  </si>
+  <si>
+    <t>Premium1 Bedroom Suite-King Bed</t>
+  </si>
+  <si>
+    <t>Standard Twin Room</t>
+  </si>
+  <si>
+    <t>1 King-Guest Room</t>
+  </si>
+  <si>
+    <t>Deluxe Room-Wi-Fi-Sofa Bed</t>
+  </si>
+  <si>
+    <t>Family Room - City Harbor View</t>
+  </si>
+  <si>
+    <t>2 Double Beds-Horseshoe Falls View</t>
+  </si>
+  <si>
+    <t>Junior Suite - Airport View</t>
+  </si>
+  <si>
+    <t>Accessible Suite</t>
+  </si>
+  <si>
+    <t>Business Class-Breakfast-Addtl Features</t>
+  </si>
+  <si>
+    <t>King Bed Queen Bed</t>
+  </si>
+  <si>
+    <t>Diamond Suite-King Bed</t>
+  </si>
+  <si>
+    <t>Business Class-King Bed-Breakfast-NSK</t>
+  </si>
+  <si>
+    <t>Studio Suite-2 Double Beds</t>
+  </si>
+  <si>
+    <t>Studio</t>
+  </si>
+  <si>
+    <t>One Bedroom Suite Country View</t>
+  </si>
+  <si>
+    <t>Standard Room Riverview</t>
+  </si>
+  <si>
+    <t>Suite - Lounge Access</t>
+  </si>
+  <si>
+    <t>Premium Room - Balcony &amp;amp; Lake View</t>
+  </si>
+  <si>
+    <t>Lagoon View One Bedroom Suite</t>
+  </si>
+  <si>
+    <t>Suite with Sauna</t>
+  </si>
+  <si>
+    <t>Premium Room - Alster View</t>
+  </si>
+  <si>
+    <t>Panoramic Suite</t>
+  </si>
+  <si>
+    <t>Family 2 connected rooms</t>
+  </si>
+  <si>
+    <t>Lagoon View Two Bedroom Suite</t>
+  </si>
+  <si>
+    <t>Collection Superior - Pool View</t>
+  </si>
+  <si>
+    <t>Standard Room - City Harbor View</t>
+  </si>
+  <si>
+    <t>Family Room - Panoramic View</t>
+  </si>
+  <si>
+    <t>Superior Room-King Bed-Internet</t>
+  </si>
+  <si>
+    <t>Three Bedroom Apartment</t>
+  </si>
+  <si>
+    <t>1 bedroom Suite-2 Queen Beds</t>
+  </si>
+  <si>
+    <t>TWO ROOM SUITE</t>
+  </si>
+  <si>
+    <t>Suite Balcony</t>
+  </si>
+  <si>
+    <t>Studio Suite-2 Twin Beds</t>
+  </si>
+  <si>
+    <t>Premium Room New Style</t>
+  </si>
+  <si>
+    <t>Queen Bed-Niagara River View</t>
+  </si>
+  <si>
+    <t>Suite St.Sophia Cathedral View</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>2 Bedroom Suite-King Bed-Full Size Bed</t>
+  </si>
+  <si>
+    <t>Executive Double Room</t>
+  </si>
+  <si>
+    <t>Sea View Villa</t>
+  </si>
+  <si>
+    <t>Standard Room - Panoramic City View</t>
+  </si>
+  <si>
+    <t>Standard Room - Creek View &amp;amp; Balcony</t>
+  </si>
+  <si>
+    <t>Art Room XL</t>
+  </si>
+  <si>
+    <t>SUPERIOR ROOM-WIRELESS-AIRCO</t>
+  </si>
+  <si>
+    <t>Presidental Suite</t>
+  </si>
+  <si>
+    <t>Mezzanine Suite - Terrace</t>
+  </si>
+  <si>
+    <t>Family Stay - 2 Rooms</t>
+  </si>
+  <si>
+    <t>2 Bedroom Suite-2 Queens-King</t>
+  </si>
+  <si>
+    <t>Standard Mountain View</t>
+  </si>
+  <si>
+    <t>Superior Room-Complimentary Wi-Fi</t>
+  </si>
+  <si>
+    <t>Whirlpool Suite-King Bed</t>
+  </si>
+  <si>
+    <t>Radisson Club Room</t>
+  </si>
+  <si>
+    <t>Classic Room</t>
+  </si>
+  <si>
+    <t>Penthouse - Three Bedroom</t>
+  </si>
+  <si>
+    <t>Suite - Sea View</t>
+  </si>
+  <si>
+    <t>1 Bed-Room Superior Apartment</t>
+  </si>
+  <si>
+    <t>Guest Room King</t>
+  </si>
+  <si>
+    <t>Studio Suite - King Bed</t>
+  </si>
+  <si>
+    <t>Premium Room - Cathedral View</t>
+  </si>
+  <si>
+    <t>Collection Premium Room</t>
+  </si>
+  <si>
+    <t>King Bed</t>
+  </si>
+  <si>
+    <t>Queen Bed</t>
+  </si>
+  <si>
+    <t>Suite - Runway View</t>
+  </si>
+  <si>
+    <t>Senior Suite with Sea View and Balcony</t>
+  </si>
+  <si>
+    <t>Junior Suite  - Pool View &amp;amp; Balcony</t>
+  </si>
+  <si>
+    <t>Deluxe Room - Free Wifi</t>
+  </si>
+  <si>
+    <t>ECONOMY ROOM</t>
+  </si>
+  <si>
+    <t>Studio Suite-2 King Beds</t>
+  </si>
+  <si>
+    <t>Premium Room - View</t>
+  </si>
+  <si>
+    <t>Deluxe Guest Room</t>
+  </si>
+  <si>
+    <t>Executive Level-1 King</t>
+  </si>
+  <si>
+    <t>Standard Room</t>
+  </si>
+  <si>
+    <t>Junior Suite-Sitting Area-Wi-Fi</t>
+  </si>
+  <si>
+    <t>Family Sea view</t>
+  </si>
+  <si>
+    <t>1 Bedrooms Suite-King Bed</t>
+  </si>
+  <si>
+    <t>2 Queen Beds</t>
+  </si>
+  <si>
+    <t>Whirlpool Suite-2 Queen Beds</t>
+  </si>
+  <si>
+    <t>Open Plan Studio</t>
+  </si>
+  <si>
+    <t>2 Bedroom Suite-2 King Beds</t>
+  </si>
+  <si>
+    <t>Business Class Suite-BF-Addtl Features</t>
+  </si>
+  <si>
+    <t>Executive Room - Lounge Access</t>
+  </si>
+  <si>
+    <t>2 Twin Beds</t>
+  </si>
+  <si>
+    <t>Two Bedroom Chalet</t>
+  </si>
+  <si>
+    <t>art suite</t>
+  </si>
+  <si>
+    <t>Basic 2 Double Beds</t>
+  </si>
+  <si>
+    <t>One Bedroom Apartment with Balcony</t>
+  </si>
+  <si>
+    <t>Monaco King Suite</t>
+  </si>
+  <si>
+    <t>Superior King - Iconic View</t>
+  </si>
+  <si>
+    <t>Standard Guest Room-Ocean View</t>
+  </si>
+  <si>
+    <t>Extended Stay Suite-King Bed</t>
+  </si>
+  <si>
+    <t>Premium Room - Panoramic Old Town View</t>
+  </si>
+  <si>
+    <t>Executive Double</t>
+  </si>
+  <si>
+    <t>One Bedroom Palace Suite</t>
+  </si>
+  <si>
+    <t>Colour Suite</t>
+  </si>
+  <si>
+    <t>Business Class-Queen Bed</t>
+  </si>
+  <si>
+    <t>Royal Mile Suite</t>
+  </si>
+  <si>
+    <t>Grand Suite - Lounge Access</t>
+  </si>
+  <si>
+    <t>Single Guest Room with Single Bed</t>
+  </si>
+  <si>
+    <t>Corner Suite</t>
+  </si>
+  <si>
+    <t>Superior Double Room</t>
+  </si>
+  <si>
+    <t>Guest Room-1 Full</t>
+  </si>
+  <si>
+    <t>Standard Single Room</t>
+  </si>
+  <si>
+    <t>2 Queen Beds-Lakeview</t>
+  </si>
+  <si>
+    <t>Studio Suite-2 Double-Balcony</t>
+  </si>
+  <si>
+    <t>Deluxe room</t>
+  </si>
+  <si>
+    <t>Bridal Suite</t>
+  </si>
+  <si>
+    <t>Superior Room - Pool Access</t>
+  </si>
+  <si>
+    <t>Royal Suite</t>
+  </si>
+  <si>
+    <t>Superior Room</t>
+  </si>
+  <si>
+    <t>Standard Room with Breakfast</t>
+  </si>
+  <si>
+    <t>Suite - One Bedroom</t>
+  </si>
+  <si>
+    <t>Classic Suite</t>
+  </si>
+  <si>
+    <t>Family Guest Room</t>
+  </si>
+  <si>
+    <t>Garden Courtyard 1 Bedroom Suite</t>
+  </si>
+  <si>
+    <t>Studio Guest Room</t>
+  </si>
+  <si>
+    <t>Suite</t>
+  </si>
+  <si>
+    <t>Suite - Panoramic Sea View</t>
+  </si>
+  <si>
+    <t>Deluxe One Bed Room Residence Marina View</t>
+  </si>
+  <si>
+    <t>Superior Room - Garden View</t>
+  </si>
+  <si>
+    <t>Superior Room - sea view</t>
+  </si>
+  <si>
+    <t>Premium Room - Old Town View</t>
+  </si>
+  <si>
+    <t>Junior Suite - Marina View</t>
+  </si>
+  <si>
+    <t>Royal Suite - Lounge Access</t>
+  </si>
+  <si>
+    <t>Premium Room-Garden View</t>
+  </si>
+  <si>
+    <t>Superior Room - Terminal Vibe</t>
+  </si>
+  <si>
+    <t>King Bed-Lakeview</t>
+  </si>
+  <si>
+    <t>1 Bedroom Suite-River View</t>
+  </si>
+  <si>
+    <t>Studio-King Bed</t>
+  </si>
+  <si>
+    <t>Premium Room - Airfield View</t>
+  </si>
+  <si>
+    <t>Superior Guest Room</t>
+  </si>
+  <si>
+    <t>Premium Room - Canal View</t>
+  </si>
+  <si>
+    <t>Marine Club Room</t>
+  </si>
+  <si>
+    <t>Junior Suite - Square View &amp;amp; Balcony</t>
+  </si>
+  <si>
+    <t>Executive King - Iconic View</t>
+  </si>
+  <si>
+    <t>Art Suite XL</t>
+  </si>
+  <si>
+    <t>2 Bedroom Suite</t>
+  </si>
+  <si>
+    <t>Single Guest Room</t>
+  </si>
+  <si>
+    <t>Superior Guest Room-Ocean View</t>
+  </si>
+  <si>
+    <t>Garden View Two Bedroom Suite</t>
+  </si>
+  <si>
+    <t>Studio Suite-King and Queen Bed</t>
+  </si>
+  <si>
+    <t>Collection Superior Room - Tivoli View</t>
+  </si>
+  <si>
+    <t>Premium Studio Suite-2 Queen Beds</t>
+  </si>
+  <si>
+    <t>Standard room with limited view</t>
+  </si>
+  <si>
+    <t>2 Queen Bed</t>
+  </si>
+  <si>
+    <t>Guest Room 2 Queens</t>
+  </si>
+  <si>
+    <t>Junior Suite</t>
+  </si>
+  <si>
+    <t>Club Room-Breakfast-Club Lounge</t>
+  </si>
+  <si>
+    <t>Deluxe  Room</t>
+  </si>
+  <si>
+    <t>Executive Twin - Iconic View</t>
+  </si>
+  <si>
+    <t>Business Class Room-King Bed</t>
+  </si>
+  <si>
+    <t>Deluxe Room-Breakfast-Kitchenette</t>
+  </si>
+  <si>
+    <t>Premium Room 2 Double Beds</t>
+  </si>
+  <si>
+    <t>Premium Suite-King Bed-Queen Bed</t>
+  </si>
+  <si>
+    <t>Premium Room - Fjord View</t>
+  </si>
+  <si>
+    <t>Superior Room - Balcony</t>
+  </si>
+  <si>
+    <t>Superior Room - High Floor City View</t>
+  </si>
+  <si>
+    <t>Deluxe Room-Breakfast-Wi-Fi</t>
+  </si>
+  <si>
+    <t>2 Quee Beds</t>
+  </si>
+  <si>
+    <t>King Junior Suite</t>
+  </si>
+  <si>
+    <t>Deluxe Room-Minibar-WiFi</t>
+  </si>
+  <si>
+    <t>Sauna Suite Queen Bed Non-Smoking</t>
+  </si>
+  <si>
+    <t>Castle View Suite</t>
+  </si>
+  <si>
+    <t>1 Bedroom Suite 2 Queens</t>
+  </si>
+  <si>
+    <t>Premium Room- King Bed</t>
+  </si>
+  <si>
+    <t>Deluxe King Room</t>
+  </si>
+  <si>
+    <t>Premium Room - Skyline &amp;amp; Lake View</t>
+  </si>
+  <si>
+    <t>1Bdrm Ste-Rivervw--Living Rm</t>
+  </si>
+  <si>
+    <t>Junior Suite - Runway View</t>
+  </si>
+  <si>
+    <t>Alpine Suite</t>
+  </si>
+  <si>
+    <t>Premier Room</t>
+  </si>
+  <si>
+    <t>Premium Room - Pool Access</t>
+  </si>
+  <si>
+    <t>Deluxe King Room - City View</t>
+  </si>
+  <si>
+    <t>Business Class Deluxe</t>
+  </si>
+  <si>
+    <t>1 Bedroom Suite-1 King Bed</t>
+  </si>
+  <si>
+    <t>Superior Room - Park View</t>
+  </si>
+  <si>
+    <t>Premium 1 Bedroom Suite-1 King Bed</t>
+  </si>
+  <si>
+    <t>Premium Room - City Harbor View</t>
+  </si>
+  <si>
+    <t>Deluxe Executive Suite</t>
+  </si>
+  <si>
+    <t>Corner Studio with King Bed</t>
+  </si>
+  <si>
+    <t>Signature Room</t>
+  </si>
+  <si>
+    <t>Superior Room - Panoramic view</t>
+  </si>
+  <si>
+    <t>Premium Studio-King Bed</t>
+  </si>
+  <si>
+    <t>Whirlpool Fantasy Suite-King Bed</t>
+  </si>
+  <si>
+    <t>Friends &amp;amp; Family Stay: Multiple Rooms</t>
+  </si>
+  <si>
+    <t>One Bedroom Premiere Suite</t>
+  </si>
+  <si>
+    <t>Premium1 Bedroom Suite-Queen Bed</t>
+  </si>
+  <si>
+    <t>Superior Room - City Harbor View</t>
+  </si>
+  <si>
+    <t>Royal Suite-King Bed Ocean View</t>
+  </si>
+  <si>
+    <t>Aegean Swim up Pool, Sea View</t>
+  </si>
+  <si>
+    <t>Premium Room - Scandinavian Style</t>
+  </si>
+  <si>
+    <t>Junior Suite - Cathedral View</t>
+  </si>
+  <si>
+    <t>Superior Executive Suite</t>
+  </si>
+  <si>
+    <t>Queen Bed-Superior Room</t>
+  </si>
+  <si>
+    <t>Guest Room-Balcony-Rainforest-Golf View</t>
+  </si>
+  <si>
+    <t>Skylight Suite</t>
+  </si>
+  <si>
+    <t>Junior Suite - Mountain View &amp;amp; Terrace</t>
+  </si>
+  <si>
+    <t>Business Class Room Sea View</t>
+  </si>
+  <si>
+    <t>Deluxe Room Pool View</t>
+  </si>
+  <si>
+    <t>Premium Studio Suite-King Bed</t>
+  </si>
+  <si>
+    <t>Studio room-City View</t>
+  </si>
+  <si>
+    <t>Deluxe Room-Pool view</t>
+  </si>
+  <si>
+    <t>Polar Suite - Panoramic Fjord View</t>
+  </si>
+  <si>
+    <t>Family 2 Bedroom Suite</t>
+  </si>
+  <si>
+    <t>Family Room - Sea View &amp;amp; Terrace</t>
+  </si>
+  <si>
+    <t>Two Bedroom Superior Suite with Seaview</t>
+  </si>
+  <si>
+    <t>Premium Room Pool View</t>
+  </si>
+  <si>
+    <t>Premium Room - Skyline View</t>
+  </si>
+  <si>
+    <t>Premium-2 Queen Beds</t>
+  </si>
+  <si>
+    <t>Deluxe Studio</t>
+  </si>
+  <si>
+    <t>Family Interconnecting Room</t>
+  </si>
+  <si>
+    <t>Royal Suite-King Bed</t>
+  </si>
+  <si>
+    <t>Standard Room - Burj Khalifa View</t>
+  </si>
+  <si>
+    <t>Suite - Panoramic Fjord View</t>
+  </si>
+  <si>
+    <t>Junior Suite - Panoramic Old Town View</t>
+  </si>
+  <si>
+    <t>Guest Room-Broadband Access</t>
+  </si>
+  <si>
+    <t>Club Room</t>
+  </si>
+  <si>
+    <t>Premier Suite West Wing</t>
+  </si>
+  <si>
+    <t>Economy Single Room</t>
+  </si>
+  <si>
+    <t>ECONOMY SINGLE ROOM</t>
+  </si>
+  <si>
+    <t>Garden View 1 Bedroom Suite</t>
+  </si>
+  <si>
+    <t>1 Bedroom Suite-Queen Bed</t>
+  </si>
+  <si>
+    <t>Individual Room</t>
+  </si>
+  <si>
+    <t>Collection Room</t>
+  </si>
+  <si>
+    <t>Studio suite</t>
+  </si>
+  <si>
+    <t>Residential Suite</t>
+  </si>
+  <si>
+    <t>Queen Suite</t>
+  </si>
+  <si>
+    <t>Two Bedroom Apartment Classique</t>
+  </si>
+  <si>
+    <t>Lagoon Courtyard Two Bedroom Suite</t>
+  </si>
+  <si>
+    <t>1 Bedroom Suite-Queen Beds</t>
+  </si>
+  <si>
+    <t>One Bedroom Superior Suite with Seaview</t>
+  </si>
+  <si>
+    <t>Guest Room-Queen</t>
+  </si>
+  <si>
+    <t>EXECUTIVE ROOM</t>
+  </si>
+  <si>
+    <t>Superior room</t>
+  </si>
+  <si>
+    <t>Guest Room-High Speed Net</t>
+  </si>
+  <si>
+    <t>King Bed Ocean View</t>
+  </si>
+  <si>
+    <t>King/ Twin Superior Room</t>
+  </si>
+  <si>
+    <t>Business Class room</t>
+  </si>
+  <si>
+    <t>Art Suite</t>
+  </si>
+  <si>
+    <t>Apartment - One Bedroom</t>
+  </si>
+  <si>
+    <t>1 Bedroom Family Suite-King Bed</t>
+  </si>
+  <si>
+    <t>Suite - Two Bedrooms</t>
+  </si>
+  <si>
+    <t>Deluxe Panoramic View</t>
+  </si>
+  <si>
+    <t>Deluxe Corner Room</t>
+  </si>
+  <si>
+    <t>Family Stay: 2 Connected Rooms</t>
+  </si>
+  <si>
+    <t>Studio Sky View with Twin Bed</t>
+  </si>
+  <si>
+    <t>Studio Deluxe</t>
+  </si>
+  <si>
+    <t>JUNIOR SUITE DELUXE</t>
+  </si>
+  <si>
+    <t>Presidential Suite</t>
+  </si>
+  <si>
+    <t>Studio Suite-King Bed</t>
+  </si>
+  <si>
+    <t>Individual Room - Pool Access</t>
+  </si>
+  <si>
+    <t>Heritage Suite</t>
+  </si>
+  <si>
+    <t>Garden Courtyard Two Bedroom Suite</t>
+  </si>
+  <si>
+    <t>EXECUTIVE ROOM-FREE WIRELESS</t>
+  </si>
+  <si>
+    <t>Business Class Executive Corner</t>
+  </si>
+  <si>
+    <t>Superior Room - Lake &amp;amp; City View</t>
+  </si>
+  <si>
+    <t>Deluxe King-River View</t>
+  </si>
+  <si>
+    <t>King Bed-Ocean View</t>
+  </si>
+  <si>
+    <t>One Bedroom Apartment (2+2) Sea Side</t>
+  </si>
+  <si>
+    <t>Extended Stay Suite-2 Queen Beds</t>
+  </si>
+  <si>
+    <t>The Apartment</t>
+  </si>
+  <si>
+    <t>Family Room - Terrace</t>
+  </si>
+  <si>
+    <t>3-Bedroom Lodge Apartment with Kitchen</t>
+  </si>
+  <si>
+    <t>Premium Suite-2 Queen Beds</t>
+  </si>
+  <si>
+    <t>Studio 2 Twin Beds</t>
+  </si>
+  <si>
+    <t>Deluxe Superior Room</t>
+  </si>
+  <si>
+    <t>Suite - 2 Queen</t>
+  </si>
+  <si>
+    <t>Duplex Junior Suite</t>
+  </si>
+  <si>
+    <t>Spa Junior Suite</t>
+  </si>
+  <si>
+    <t>Superior Bosphorus Room</t>
+  </si>
+  <si>
+    <t>Superior class</t>
+  </si>
+  <si>
+    <t>Executive Room - Balcony &amp;amp; Lounge Access</t>
+  </si>
+  <si>
+    <t>Studio Suite-Breakfast-Airport transfers</t>
+  </si>
+  <si>
+    <t>Premium Room-King Bed-Oceanfront</t>
+  </si>
+  <si>
+    <t>Premium Room - Park View</t>
+  </si>
+  <si>
+    <t>2 Bedroom Suite-King Bed-Queen Bed</t>
+  </si>
+  <si>
+    <t>Deluxe Business Class Room</t>
+  </si>
+  <si>
+    <t>3 Bedroom Suite Luxury Pool View</t>
+  </si>
+  <si>
+    <t>Plaza Club Room</t>
+  </si>
+  <si>
+    <t>Deluxe Garden View</t>
+  </si>
+  <si>
+    <t>Superior Room - Winetower View</t>
+  </si>
+  <si>
+    <t>Grand Suite - Creek View &amp;amp; Lounge Access</t>
+  </si>
+  <si>
+    <t>Extended Stay-King Bed</t>
+  </si>
+  <si>
+    <t>Two Bedroom Apartment (3+2)</t>
+  </si>
+  <si>
+    <t>Golden Horn Terrace Suite</t>
+  </si>
+  <si>
+    <t>Business Class 1 Bedroom Suite</t>
+  </si>
+  <si>
+    <t>Classic Garden View Room</t>
+  </si>
+  <si>
+    <t>Superior Room-Wi-Fi</t>
+  </si>
+  <si>
+    <t>Suite - Copenhagen Skyline &amp;amp; Lake View</t>
+  </si>
+  <si>
+    <t>Guestroom-Minibar-29 inch TV-Breakfast</t>
+  </si>
+  <si>
+    <t>Deluxe Room-Pool View/Garden View</t>
+  </si>
+  <si>
+    <t>Two Room Suite</t>
+  </si>
+  <si>
+    <t>Collection Executive Room - Lounge Access</t>
+  </si>
+  <si>
+    <t>Superior Room - Rhinepark View</t>
+  </si>
+  <si>
+    <t>Premium Room - Roof Top View</t>
+  </si>
+  <si>
+    <t>Ruyschen Suite - Canal View</t>
+  </si>
+  <si>
+    <t>Standard Room - Terrace</t>
+  </si>
+  <si>
+    <t>Component Suite 2 bedroom</t>
+  </si>
+  <si>
+    <t>Junior Suite - Terrace</t>
+  </si>
+  <si>
+    <t>2-Bedroom Family Apartment with Kitchen</t>
+  </si>
+  <si>
+    <t>Economy Guest Room</t>
+  </si>
+  <si>
+    <t>Penthouse</t>
+  </si>
+  <si>
+    <t>2 Double Beds-Oceanfront</t>
+  </si>
+  <si>
+    <t>Superior Room-Breakfast-Wi-Fi</t>
+  </si>
+  <si>
+    <t>Presidential Suite - Terrace</t>
+  </si>
+  <si>
+    <t>Twin Premier Room</t>
+  </si>
+  <si>
+    <t>Superior Ocean View</t>
+  </si>
+  <si>
+    <t>Two Bedroom Pennine Suite</t>
+  </si>
+  <si>
+    <t>Junior Suite Sea View</t>
+  </si>
+  <si>
+    <t>Executive Suite-Airport Transfers-WiFi</t>
+  </si>
+  <si>
+    <t>2 Twin Beds with Balcony</t>
+  </si>
+  <si>
+    <t>Corner Studio</t>
+  </si>
+  <si>
+    <t>Deluxe Residence - Two Bedroom</t>
+  </si>
+  <si>
+    <t>2 Queen beds</t>
+  </si>
+  <si>
+    <t>1 Bedroom Suite-King Bed-2 Twin Beds</t>
+  </si>
+  <si>
+    <t>Suite - Square View &amp;amp; Balcony</t>
+  </si>
+  <si>
+    <t>Studio Apartment</t>
+  </si>
+  <si>
+    <t>Pres. Suite - Sea View &amp;amp; Lounge Access</t>
+  </si>
+  <si>
+    <t>Superior Guest Room Majestic</t>
+  </si>
+  <si>
+    <t>Family Room- balcony sea view</t>
+  </si>
+  <si>
+    <t>Business Class Suite-Living Room-WiFi</t>
+  </si>
+  <si>
+    <t>Karim Rashid Suite</t>
+  </si>
+  <si>
+    <t>Deluxe Suite Taj Mahal View</t>
+  </si>
+  <si>
+    <t>Honeymoon Suite</t>
+  </si>
+  <si>
+    <t>Superior Room-London Eye View</t>
+  </si>
+  <si>
+    <t>Deluxe Room-Desk-Internet-Arprt Shuttle</t>
+  </si>
+  <si>
+    <t>Atlantic Suite</t>
+  </si>
+  <si>
+    <t>Sea View Guest Room</t>
+  </si>
+  <si>
+    <t>Whirlpool Suite</t>
+  </si>
+  <si>
+    <t>Standard Room - Airport View</t>
+  </si>
+  <si>
+    <t>Business Class Room-Aiport Transfer-WiFi</t>
+  </si>
+  <si>
+    <t>Premium Room - Sea View</t>
+  </si>
+  <si>
+    <t>Extended Stay-2 Double Beds</t>
+  </si>
+  <si>
+    <t>Business Class Room with Bay window</t>
+  </si>
+  <si>
+    <t>Single room with Double Bed</t>
+  </si>
+  <si>
+    <t>1 Bedroom Plaza Suite-King Bed</t>
+  </si>
+  <si>
+    <t>2 Bedroom Suite-King Bed-2 Twin Beds</t>
+  </si>
+  <si>
+    <t>Cosy Small Room</t>
+  </si>
+  <si>
+    <t>Standard Balcony/Terrace</t>
+  </si>
+  <si>
+    <t>Studio Twin Room</t>
+  </si>
+  <si>
+    <t>Presidential Suite-King Bed</t>
+  </si>
+  <si>
+    <t>Premium Room - Runway View</t>
+  </si>
+  <si>
+    <t>1 Bedroom-King-2 Twin Beds</t>
+  </si>
+  <si>
+    <t>Standard Room - Troyitska Square View</t>
+  </si>
+  <si>
+    <t>Studio with 2 Twin Beds</t>
+  </si>
+  <si>
+    <t>Premium Suite-1 King</t>
+  </si>
+  <si>
+    <t>Superior Garden View</t>
+  </si>
+  <si>
+    <t>Premium Room - Airport View</t>
+  </si>
+  <si>
+    <t>1 Bedroom Suite-2 Queen Queens</t>
+  </si>
+  <si>
+    <t>Suite - Lake View</t>
+  </si>
+  <si>
+    <t>Superior Room-Balcony Pool View</t>
+  </si>
+  <si>
+    <t>Junior Suite - Historical City View</t>
+  </si>
+  <si>
+    <t>Deluxe Residence - One Bedroom</t>
+  </si>
+  <si>
+    <t>2 Bedroom Suite-Terrace</t>
+  </si>
+  <si>
+    <t>Extended Stay Suite-King Bed-1 Queen Beds</t>
+  </si>
+  <si>
+    <t>Panorama Suite</t>
+  </si>
+  <si>
+    <t>1 Bedroom Suite</t>
+  </si>
+  <si>
+    <t>Executive Studio-London Eye View</t>
+  </si>
+  <si>
+    <t>Premium Room-3 Twin Beds</t>
+  </si>
+  <si>
+    <t>Executive Suite-Breakfast-Living Room</t>
+  </si>
+  <si>
     <t>2 Twin Beds Ocean View</t>
   </si>
   <si>
+    <t>Studio Suite with King Bed</t>
+  </si>
+  <si>
+    <t>Penthouse Suite-King Bed</t>
+  </si>
+  <si>
+    <t>2 Double Beds-Ocean View</t>
+  </si>
+  <si>
+    <t>Two Bedroom Apartment - Balcony</t>
+  </si>
+  <si>
+    <t>Premium Room</t>
+  </si>
+  <si>
+    <t>Deluxe Room with Seaview</t>
+  </si>
+  <si>
+    <t>ONE BEDROOM SUITE</t>
+  </si>
+  <si>
+    <t>One Bedroom Plaza Suite</t>
+  </si>
+  <si>
+    <t>Martinique Club Level Rm-2 Queens</t>
+  </si>
+  <si>
+    <t>STANDARD ROOM</t>
+  </si>
+  <si>
+    <t>Business Class Room - breakfast included</t>
+  </si>
+  <si>
+    <t>Collection Premium Room - Corner</t>
+  </si>
+  <si>
+    <t>Premium Room - Cathedral View &amp;amp; Balcony</t>
+  </si>
+  <si>
+    <t>Grand Premier Room</t>
+  </si>
+  <si>
+    <t>Executive Studio-City View</t>
+  </si>
+  <si>
+    <t>Standard Room - Park View</t>
+  </si>
+  <si>
+    <t>Two Bedroom Suite</t>
+  </si>
+  <si>
+    <t>Suite - Airport View</t>
+  </si>
+  <si>
+    <t>DELUXE SUITE</t>
+  </si>
+  <si>
+    <t>Junior Suite Garden View</t>
+  </si>
+  <si>
+    <t>Standard Room Ground Floor</t>
+  </si>
+  <si>
+    <t>Art Room XL-Iconic View</t>
+  </si>
+  <si>
+    <t>Two Bedroom Suite with Seaview</t>
+  </si>
+  <si>
+    <t>Superior Room-Garden Facing</t>
+  </si>
+  <si>
+    <t>Superior Room - Sea View</t>
+  </si>
+  <si>
+    <t>Business Class-2 Queen Beds</t>
+  </si>
+  <si>
+    <t>Premium Studio Suite-2 Double Beds</t>
+  </si>
+  <si>
+    <t>Studio Suite-King Bed-Oceanfront</t>
+  </si>
+  <si>
+    <t>Guest Room</t>
+  </si>
+  <si>
+    <t>Family Room - Fjord &amp;amp; Runway View</t>
+  </si>
+  <si>
+    <t>Deluxe Room-Breakfast-WiFi-Gym</t>
+  </si>
+  <si>
+    <t>art room</t>
+  </si>
+  <si>
+    <t>2 Bed-Rooms Superior Apartment With River</t>
+  </si>
+  <si>
+    <t>2 Queen Beds-Ocean View</t>
+  </si>
+  <si>
+    <t>Art Room-Iconic View</t>
+  </si>
+  <si>
+    <t>Standard Room - River View</t>
+  </si>
+  <si>
+    <t>2 Queen-Guest Room</t>
+  </si>
+  <si>
+    <t>Studio Suite-Queen Bed-Twin Beds</t>
+  </si>
+  <si>
+    <t>Premium 1 Bedroom Suite King Bed</t>
+  </si>
+  <si>
+    <t>Superior Room - Arthur's Seat Hill View</t>
+  </si>
+  <si>
+    <t>Superior Room-atrium view</t>
+  </si>
+  <si>
+    <t>Superior Room-Complimentary WiFi</t>
+  </si>
+  <si>
+    <t>Premimum 1 Bedroom Suite-King Bed</t>
+  </si>
+  <si>
+    <t>Premium One Bedroom App (2+2) Sea Side</t>
+  </si>
+  <si>
+    <t>Signature Suite</t>
+  </si>
+  <si>
+    <t>Room with view</t>
+  </si>
+  <si>
+    <t>Premium Room with Sea View and Balcony</t>
+  </si>
+  <si>
+    <t>Deluxe Ocean View</t>
+  </si>
+  <si>
+    <t>Art Panorama Room-Harbour View</t>
+  </si>
+  <si>
+    <t>Whirlpool Suite-Hi Speed Net</t>
+  </si>
+  <si>
+    <t>Two Bedroom Suite - Two Bathrooms</t>
+  </si>
+  <si>
+    <t>Executive room</t>
+  </si>
+  <si>
+    <t>King Bed-Non Smoking</t>
+  </si>
+  <si>
+    <t>Executive Class-King Bed</t>
+  </si>
+  <si>
+    <t>Art Room-Rhine View</t>
+  </si>
+  <si>
+    <t>Executive Studio Suite</t>
+  </si>
+  <si>
+    <t>Executive Level-2 Double beds</t>
+  </si>
+  <si>
+    <t>Hospitality Suite-King Murphy Bed</t>
+  </si>
+  <si>
+    <t>Sea View Chalet</t>
+  </si>
+  <si>
+    <t>Suite - Balcony</t>
+  </si>
+  <si>
+    <t>Standard room with Breakfast</t>
+  </si>
+  <si>
+    <t>Art Twin Room-Free Wi-Fi</t>
+  </si>
+  <si>
+    <t>Standard Guest Room with Seaview</t>
+  </si>
+  <si>
+    <t>1Bdrm Suite-Canal/Bay View-Fridge-Balcony</t>
+  </si>
+  <si>
+    <t>Petite Room</t>
+  </si>
+  <si>
+    <t>Mall of America Suite</t>
+  </si>
+  <si>
+    <t>Luxury One Bedroom Suite</t>
+  </si>
+  <si>
+    <t>Prive Premium</t>
+  </si>
+  <si>
+    <t>Natural Bliss Suite - Balcony</t>
+  </si>
+  <si>
+    <t>Premium Room-Breakfast-Wi-Fi</t>
+  </si>
+  <si>
+    <t>Pool Villa</t>
+  </si>
+  <si>
+    <t>Deluxe Panorama Room</t>
+  </si>
+  <si>
+    <t>Business Class Suite-Bkfst-Features</t>
+  </si>
+  <si>
+    <t>Junior Suite XL</t>
+  </si>
+  <si>
+    <t>Premium  Room - Sea View</t>
+  </si>
+  <si>
+    <t>Grand Suite Queen Bed Non-Smoking</t>
+  </si>
+  <si>
+    <t>1 Bedroom Premier Suite</t>
+  </si>
+  <si>
+    <t>Premium Queen Bed</t>
+  </si>
+  <si>
+    <t>Seaview 2 Bedroom Duplex</t>
+  </si>
+  <si>
+    <t>Business Class Room-Lake View</t>
+  </si>
+  <si>
+    <t>Standard Room Sea View</t>
+  </si>
+  <si>
+    <t>Sinatra King Suite</t>
+  </si>
+  <si>
+    <t>Executive Junior Suite</t>
+  </si>
+  <si>
+    <t>Art Room-Castle View</t>
+  </si>
+  <si>
+    <t>Superior Room - balcony sea view</t>
+  </si>
+  <si>
+    <t>Standard Room Country View</t>
+  </si>
+  <si>
+    <t>Whirlpool suite</t>
+  </si>
+  <si>
+    <t>Superior Single Room</t>
+  </si>
+  <si>
+    <t>1 Bedroom Suite-2 Queen Beds</t>
+  </si>
+  <si>
+    <t>Presidential Suite - Cathedral View</t>
+  </si>
+  <si>
+    <t>Three Bedroom Luxury Suite with Seaview</t>
+  </si>
+  <si>
+    <t>Premium Room-2 Twin Beds-Executive Floor</t>
+  </si>
+  <si>
+    <t>Seaview One Bedroom Suite</t>
+  </si>
+  <si>
+    <t>Plaza Room</t>
+  </si>
+  <si>
+    <t>Standard Room - Pool View &amp;amp; Balcony</t>
+  </si>
+  <si>
+    <t>Lagoon View Room</t>
+  </si>
+  <si>
+    <t>Junior Suite - 2 Twin Beds</t>
+  </si>
+  <si>
+    <t>Studio Double Room</t>
+  </si>
+  <si>
+    <t>Duplex One Bedroom Suite</t>
+  </si>
+  <si>
+    <t>1 Bedroom Suite King</t>
+  </si>
+  <si>
+    <t>Business Class Deluxe Suite</t>
+  </si>
+  <si>
+    <t>New Amsterdam Suite - Canal View</t>
+  </si>
+  <si>
+    <t>Premium Room-2 Queen Beds with Balcony</t>
+  </si>
+  <si>
+    <t>Deluxe Room City View</t>
+  </si>
+  <si>
+    <t>Executive Suite-Living Room-Wi-Fi</t>
+  </si>
+  <si>
+    <t>Aegean 2 Bedroom Suite</t>
+  </si>
+  <si>
+    <t>Superior Guest Rooms</t>
+  </si>
+  <si>
+    <t>Single Room</t>
+  </si>
+  <si>
+    <t>2 Queen Beds-Niagara River View</t>
+  </si>
+  <si>
+    <t>Prermium Room-Queen Bed</t>
+  </si>
+  <si>
+    <t>Business Friendly Room</t>
+  </si>
+  <si>
+    <t>Atrium Room-Separate Bath / Shower</t>
+  </si>
+  <si>
+    <t>Apartment Suite</t>
+  </si>
+  <si>
+    <t>Interconnecting Quad Rooms</t>
+  </si>
+  <si>
+    <t>Noble Junior Suite</t>
+  </si>
+  <si>
+    <t>2 Queen Beds-Oceanfront</t>
+  </si>
+  <si>
+    <t>Superior Double</t>
+  </si>
+  <si>
+    <t>Business Class King</t>
+  </si>
+  <si>
+    <t>Executive Suite - Park View</t>
+  </si>
+  <si>
+    <t>Premium Room - Square View &amp;amp; Balcony</t>
+  </si>
+  <si>
+    <t>One Bedroom Pennine Suite</t>
+  </si>
+  <si>
+    <t>Studio King Bed</t>
+  </si>
+  <si>
     <t>Premium Room-2 Twin Beds</t>
   </si>
   <si>
-    <t>Radisson Club Room</t>
-  </si>
-  <si>
-    <t>Golden Horn Terrace Suite</t>
-  </si>
-  <si>
-    <t>Premium Room - Cathedral View</t>
+    <t>Studio Family Room</t>
+  </si>
+  <si>
+    <t>Atrium Guest Room</t>
+  </si>
+  <si>
+    <t>Extended Stay-2 Queen Beds</t>
+  </si>
+  <si>
+    <t>Executive Guestroom-High Floor-Breakfast</t>
+  </si>
+  <si>
+    <t>Two Bedroom Suite-Garden View</t>
+  </si>
+  <si>
+    <t>2-Bedroom Lodge Apartment with Kitchen</t>
+  </si>
+  <si>
+    <t>Business Class Guest Room</t>
+  </si>
+  <si>
+    <t>2 King Beds</t>
+  </si>
+  <si>
+    <t>Suite - Creek View &amp;amp; Lounge Access</t>
+  </si>
+  <si>
+    <t>Deluxe Class Room</t>
+  </si>
+  <si>
+    <t>Premium Business Class-King Bed</t>
+  </si>
+  <si>
+    <t>King Bed-Beach View</t>
+  </si>
+  <si>
+    <t>King Bed with Balcony</t>
+  </si>
+  <si>
+    <t>Mediterranean Suite</t>
+  </si>
+  <si>
+    <t>Studio Room-Big Ben View</t>
+  </si>
+  <si>
+    <t>Arabian Suite</t>
+  </si>
+  <si>
+    <t>Apartment</t>
+  </si>
+  <si>
+    <t>Executive Suite-Living Room-WiFi</t>
+  </si>
+  <si>
+    <t>Studio with View &amp;amp; King Bed</t>
+  </si>
+  <si>
+    <t>Superior Room - Pool View &amp;amp; Balcony</t>
+  </si>
+  <si>
+    <t>Executive Suite View Lounge Access</t>
+  </si>
+  <si>
+    <t>Executive Suite Room</t>
+  </si>
+  <si>
+    <t>Premium Corner Room-King Bed with Balcony</t>
+  </si>
+  <si>
+    <t>One Bedroom Chalet</t>
+  </si>
+  <si>
+    <t>4 Twin Beds</t>
+  </si>
+  <si>
+    <t>Terrace Suite</t>
+  </si>
+  <si>
+    <t>Double Room</t>
+  </si>
+  <si>
+    <t>Whirlpool Suite-Queen Bed</t>
+  </si>
+  <si>
+    <t>Comfort Room</t>
+  </si>
+  <si>
+    <t>One Bed Room Suite</t>
+  </si>
+  <si>
+    <t>Aegean Suite with Private Pool</t>
+  </si>
+  <si>
+    <t>Art Room-Danube View</t>
+  </si>
+  <si>
+    <t>Family Room - Sea View</t>
+  </si>
+  <si>
+    <t>Studio Apartment - Balcony</t>
+  </si>
+  <si>
+    <t>Superior Room - City View</t>
+  </si>
+  <si>
+    <t>Superior Room - City View &amp;amp; Balcony</t>
+  </si>
+  <si>
+    <t>Bohemian Loft Suite - Balcony</t>
+  </si>
+  <si>
+    <t>Apartment - Two Bedroom</t>
+  </si>
+  <si>
+    <t>3 Twin Beds</t>
+  </si>
+  <si>
+    <t>Premium Two Bedroom App (4+2) Sea Side</t>
+  </si>
+  <si>
+    <t>Apartment - Three Bedroom</t>
+  </si>
+  <si>
+    <t>One Bedroom Ocean View Suite</t>
+  </si>
+  <si>
+    <t>2 Queen Beds-Non Smoking</t>
+  </si>
+  <si>
+    <t>1 Bedroom Suite King Bed</t>
+  </si>
+  <si>
+    <t>Presidential Suite - Sea View</t>
+  </si>
+  <si>
+    <t>Suite - Panoramic Views &amp;amp; Balcony</t>
+  </si>
+  <si>
+    <t>Old Mill Suite</t>
+  </si>
+  <si>
+    <t>Premium Studio King Bed</t>
+  </si>
+  <si>
+    <t>Junior Suite - Creek View &amp;amp; Lounge Access</t>
+  </si>
+  <si>
+    <t>Executive Suite-Living Room-Breakfast</t>
+  </si>
+  <si>
+    <t>1 Bedrm Exec Suite-Living Rm-Breakfast</t>
+  </si>
+  <si>
+    <t>Beach Front Family Room</t>
+  </si>
+  <si>
+    <t>Deluxe Junior Suite Sea View</t>
+  </si>
+  <si>
+    <t>STANDARD GUEST ROOM</t>
+  </si>
+  <si>
+    <t>One Bedroom Suite</t>
+  </si>
+  <si>
+    <t>Family Room</t>
+  </si>
+  <si>
+    <t>Premium Room - Sea &amp;amp; Mountain View</t>
+  </si>
+  <si>
+    <t>Premium Room - 2 Queen Beds</t>
+  </si>
+  <si>
+    <t>Premium Room - Panoramic City View</t>
+  </si>
+  <si>
+    <t>Superior Room - Mansion Style</t>
+  </si>
+  <si>
+    <t>Classic Guest Room-2 Doubles</t>
+  </si>
+  <si>
+    <t>Standard Room-Pool View</t>
+  </si>
+  <si>
+    <t>Guest Room-Fridge</t>
+  </si>
+  <si>
+    <t>Lagoon Courtyard One Bedroom Suite</t>
+  </si>
+  <si>
+    <t>Reder Suite - Panoramic Fjord View</t>
+  </si>
+  <si>
+    <t>Superior room- Old Town View</t>
+  </si>
+  <si>
+    <t>Premium Room - Panoramic Fjord View</t>
+  </si>
+  <si>
+    <t>Superior Room - River View</t>
+  </si>
+  <si>
+    <t>Palais Suite</t>
+  </si>
+  <si>
+    <t>Superior Room - Runway View</t>
+  </si>
+  <si>
+    <t>Family Room- Double Bed</t>
+  </si>
+  <si>
+    <t>2 Double Beds</t>
+  </si>
+  <si>
+    <t>Sea View Family Room</t>
+  </si>
+  <si>
+    <t>One Bedroom Suite Sea View</t>
+  </si>
+  <si>
+    <t>Premium Room - Sea View &amp;amp; Terrace</t>
+  </si>
+  <si>
+    <t>Executive King Studio</t>
+  </si>
+  <si>
+    <t>Premium Room - Lake View</t>
+  </si>
+  <si>
+    <t>Junior Suite-Biarritz View</t>
+  </si>
+  <si>
+    <t>Superior</t>
+  </si>
+  <si>
+    <t>1 Bedroom Suite-King Bed-Ocean View</t>
+  </si>
+  <si>
+    <t>One Bedroom Suite-Balcony</t>
+  </si>
+  <si>
+    <t>Superior Room - Pool View</t>
+  </si>
+  <si>
+    <t>One Bedroom Elite Apartment</t>
+  </si>
+  <si>
+    <t>2 Double Beds-Non Smoking</t>
+  </si>
+  <si>
+    <t>Superior Room-WiFi</t>
+  </si>
+  <si>
+    <t>Business Class Junior Suite</t>
   </si>
   <si>
     <t>Deluxe Pool View</t>
   </si>
   <si>
-    <t>Suite King Bed</t>
-  </si>
-  <si>
-    <t>Deluxe Guest Room</t>
+    <t>2 Queeen Beds</t>
+  </si>
+  <si>
+    <t>Alfesco Suite</t>
+  </si>
+  <si>
+    <t>Deluxe Island Pool Villa</t>
+  </si>
+  <si>
+    <t>Studio Suite</t>
+  </si>
+  <si>
+    <t>Junior Suite - Park View</t>
+  </si>
+  <si>
+    <t>Whirlpool Ste-Canal/Bay Vw-Fridge-Microwv</t>
+  </si>
+  <si>
+    <t>Harbourside Suite</t>
+  </si>
+  <si>
+    <t>River view Guest Room</t>
+  </si>
+  <si>
+    <t>King Bed-Oceanfront</t>
+  </si>
+  <si>
+    <t>Family Doubleroom</t>
+  </si>
+  <si>
+    <t>Junior Suite - Panoramic view</t>
+  </si>
+  <si>
+    <t>Junior Suite - Garden View</t>
+  </si>
+  <si>
+    <t>Family Rooms</t>
+  </si>
+  <si>
+    <t>Junior Suite-Living Room-Club Lounge</t>
+  </si>
+  <si>
+    <t>Junior Suite - City View &amp;amp; Terrace</t>
+  </si>
+  <si>
+    <t>Superior Balcony/Terrace</t>
+  </si>
+  <si>
+    <t>BUSINESS FRIENDLY ROOM</t>
+  </si>
+  <si>
+    <t>Family Room - balcony</t>
+  </si>
+  <si>
+    <t>Superior Queen Room</t>
+  </si>
+  <si>
+    <t>Superior Wheelchair Accessible Room</t>
+  </si>
+  <si>
+    <t>Suite-River View</t>
+  </si>
+  <si>
+    <t>Deluxe Apartment</t>
+  </si>
+  <si>
+    <t>Radisson Club Guest Room</t>
+  </si>
+  <si>
+    <t>Superior Beachfront</t>
+  </si>
+  <si>
+    <t>Executive Suite-Living Room-Pool view</t>
+  </si>
+  <si>
+    <t>Premier Suite</t>
+  </si>
+  <si>
+    <t>Business Class Room Mountain View</t>
+  </si>
+  <si>
+    <t>Family Suite</t>
+  </si>
+  <si>
+    <t>Friends &amp;amp; Family Stay - Multiple Rooms</t>
+  </si>
+  <si>
+    <t>art room plus</t>
+  </si>
+  <si>
+    <t>Superior Room-Balcony</t>
+  </si>
+  <si>
+    <t>ONE BEDROOM EXECUTIVE SUITE</t>
+  </si>
+  <si>
+    <t>Presidential Suite - River View</t>
+  </si>
+  <si>
+    <t>Premium Suite-3 Twin Beds</t>
+  </si>
+  <si>
+    <t>Business Class Room with Sea View</t>
+  </si>
+  <si>
+    <t>Club Suite</t>
+  </si>
+  <si>
+    <t>Studio Sky View with King Bed</t>
+  </si>
+  <si>
+    <t>Standard Chalet</t>
+  </si>
+  <si>
+    <t>Guest Room-Internet-Poolside</t>
+  </si>
+  <si>
+    <t>Studio Suite-2 Queen Beds</t>
+  </si>
+  <si>
+    <t>2 Bedroom Suite-King Bed-2 Queen Beds</t>
+  </si>
+  <si>
+    <t>Superior Room - balcony</t>
+  </si>
+  <si>
+    <t>Superior Room - High Floor</t>
+  </si>
+  <si>
+    <t>Business Friendly</t>
+  </si>
+  <si>
+    <t>Guest Room-Breakfast-Balcony-WiFi</t>
+  </si>
+  <si>
+    <t>Premium Room - City View</t>
+  </si>
+  <si>
+    <t>Prestige Guest Room</t>
+  </si>
+  <si>
+    <t>One Bedroom suite</t>
+  </si>
+  <si>
+    <t>Three Bedroom Suite</t>
+  </si>
+  <si>
+    <t>Family Suite-King Bed</t>
+  </si>
+  <si>
+    <t>Standard Plaza View Family Room</t>
+  </si>
+  <si>
+    <t>Deluxe Plaza Room</t>
+  </si>
+  <si>
+    <t>Junior Suite - Balcony &amp;amp; Lake View</t>
+  </si>
+  <si>
+    <t>1 Bedroom Suite-King Bed</t>
   </si>
   <si>
     <t>Superior Atrium Facing</t>
   </si>
   <si>
-    <t>1 Bedroom Suite-2 Queen Beds</t>
-  </si>
-  <si>
-    <t>2 Bed-Rooms Superior Apartment</t>
-  </si>
-  <si>
-    <t>Standard Twin Room</t>
-  </si>
-  <si>
-    <t>Business Class</t>
-  </si>
-  <si>
-    <t>Premium Room - City Harbor View</t>
+    <t>Premium Room-Queen Bed</t>
+  </si>
+  <si>
+    <t>Superior Rooms</t>
+  </si>
+  <si>
+    <t>Superior Room-City Hall Facing-Free Wi-Fi</t>
+  </si>
+  <si>
+    <t>Penthouse Suite</t>
+  </si>
+  <si>
+    <t>Sea View Suite - Terrace</t>
+  </si>
+  <si>
+    <t>Premium King Bed</t>
   </si>
   <si>
     <t>1 Bedroom Suite-2 Double Beds</t>
   </si>
   <si>
-    <t>Suite - Balcony</t>
-  </si>
-  <si>
-    <t>Garden View Two Bedroom Suite</t>
-  </si>
-  <si>
-    <t>City View Guest Room</t>
-  </si>
-  <si>
-    <t>Family Guest Room</t>
-  </si>
-  <si>
-    <t>Business Class-Breakfast-Addtl Features</t>
-  </si>
-  <si>
-    <t>Two Room Suite</t>
-  </si>
-  <si>
-    <t>Spa Junior Suite</t>
-  </si>
-  <si>
-    <t>Lagoon Courtyard Two Bedroom Suite</t>
-  </si>
-  <si>
-    <t>1Bdrm Suite-Canal/Bay View-Fridge-Balcony</t>
-  </si>
-  <si>
-    <t>1 Bedroom-King-2 Twin Beds</t>
-  </si>
-  <si>
-    <t>Family Room - Terrace</t>
-  </si>
-  <si>
-    <t>Component Suite 2 bedroom</t>
-  </si>
-  <si>
-    <t>2 Double Beds-Horseshoe Falls View</t>
-  </si>
-  <si>
-    <t>Deluxe Ocean View</t>
-  </si>
-  <si>
-    <t>SPA Suite</t>
-  </si>
-  <si>
-    <t>Business Class Room</t>
-  </si>
-  <si>
-    <t>Premium Suite</t>
-  </si>
-  <si>
-    <t>Suite - Copenhagen Skyline &amp;amp; Lake View</t>
-  </si>
-  <si>
-    <t>Superior Room - Rhinepark View</t>
+    <t>Executive Suite-Airport transfer-Wi-Fi</t>
+  </si>
+  <si>
+    <t>Superior Room - Terrace</t>
+  </si>
+  <si>
+    <t>Grand Suite</t>
+  </si>
+  <si>
+    <t>One Bedroom Apartment Sea View</t>
   </si>
   <si>
     <t>Superior Twin - Iconic View</t>
   </si>
   <si>
-    <t>Superior Rooms</t>
-  </si>
-  <si>
-    <t>Two Bedroom Suite - One Bathroom</t>
-  </si>
-  <si>
-    <t>Guest Room-Breakfast-Balcony-WiFi</t>
+    <t>Superior Studio Room</t>
+  </si>
+  <si>
+    <t>2 Bedroom Suite Pool View</t>
+  </si>
+  <si>
+    <t>Business Suite-King Bed</t>
+  </si>
+  <si>
+    <t>Boardwalk Empire King Suite</t>
+  </si>
+  <si>
+    <t>Quadruple Room</t>
+  </si>
+  <si>
+    <t>Single guest room</t>
+  </si>
+  <si>
+    <t>Superior Room - Airport View</t>
+  </si>
+  <si>
+    <t>Executive Room</t>
+  </si>
+  <si>
+    <t>Four Bedroom Villa</t>
   </si>
   <si>
     <t>Studio with King Bed</t>
   </si>
   <si>
-    <t>Business Class Room with Bay window</t>
-  </si>
-  <si>
-    <t>Guest Room-Fridge</t>
-  </si>
-  <si>
-    <t>Superior Room - Pool View &amp;amp; Balcony</t>
-  </si>
-  <si>
-    <t>Superior Room-Garden Facing</t>
-  </si>
-  <si>
-    <t>One Bedroom Suite Country View</t>
-  </si>
-  <si>
-    <t>One Bedroom Premiere Suite</t>
-  </si>
-  <si>
-    <t>Grand Suite</t>
-  </si>
-  <si>
-    <t>Family Room - City Harbor View</t>
-  </si>
-  <si>
-    <t>Premium Room-Garden View</t>
-  </si>
-  <si>
-    <t>Studio Room-London Eye View</t>
-  </si>
-  <si>
-    <t>Deluxe room</t>
+    <t>Premium King-Sofabed</t>
+  </si>
+  <si>
+    <t>Junior Suite - King Bed</t>
   </si>
   <si>
     <t>One Bedroom Executive Suite</t>
   </si>
   <si>
-    <t>One Bedroom Apartment (2+2) Sea Side</t>
-  </si>
-  <si>
-    <t>Executive Suite-Airport transfer-Wi-Fi</t>
-  </si>
-  <si>
-    <t>2 Bedroom Suite-2 Queens-1 King</t>
-  </si>
-  <si>
-    <t>Junior Suite - Park View</t>
-  </si>
-  <si>
-    <t>Suite - Planten un Blomen Park View</t>
-  </si>
-  <si>
-    <t>Suite - 2 Queen</t>
-  </si>
-  <si>
-    <t>Family Room - balcony</t>
-  </si>
-  <si>
-    <t>Family Room- Double Bed</t>
-  </si>
-  <si>
-    <t>Standard Room Sea View</t>
-  </si>
-  <si>
-    <t>2 Queen Beds-Oceanfront</t>
-  </si>
-  <si>
-    <t>Art Room XL-Iconic View</t>
-  </si>
-  <si>
-    <t>Marine Club Room</t>
+    <t>Studio Suite-Queen Bed-Executive Suite</t>
+  </si>
+  <si>
+    <t>Luxury Guest Room</t>
+  </si>
+  <si>
+    <t>Studio Suite-Queen Bed</t>
+  </si>
+  <si>
+    <t>Plaza Club Superior Room</t>
+  </si>
+  <si>
+    <t>2 Full Beds</t>
+  </si>
+  <si>
+    <t>Ambassador Suite</t>
+  </si>
+  <si>
+    <t>Deluxe River View Room</t>
+  </si>
+  <si>
+    <t>Premium Room-King Bed Ocean View</t>
+  </si>
+  <si>
+    <t>Whirlpool Suite King Bed</t>
+  </si>
+  <si>
+    <t>Studio Suite with separate Bedroom</t>
+  </si>
+  <si>
+    <t>Premium Room - Terrace</t>
+  </si>
+  <si>
+    <t>Suite - Old Town View</t>
+  </si>
+  <si>
+    <t>Maisonette Suite</t>
+  </si>
+  <si>
+    <t>Three Bedroom Apartment Espace</t>
+  </si>
+  <si>
+    <t>Premium Room - Rhinepark View</t>
+  </si>
+  <si>
+    <t>Superior Room - Panoramic City View</t>
+  </si>
+  <si>
+    <t>Family Stay - 2 Connecting Rooms</t>
+  </si>
+  <si>
+    <t>Junior Suite - Sea View</t>
+  </si>
+  <si>
+    <t>Executive Suite-Airport Transfers-W-Fi</t>
+  </si>
+  <si>
+    <t>Standard Room Garden View</t>
+  </si>
+  <si>
+    <t>Studio 2 Queens</t>
+  </si>
+  <si>
+    <t>Executive King Room</t>
+  </si>
+  <si>
+    <t>Golden Horn Panoramic Suite</t>
+  </si>
+  <si>
+    <t>Suite - Panoramic View</t>
+  </si>
+  <si>
+    <t>2 Queen Studio Suite-Oceanfront-Balcony</t>
+  </si>
+  <si>
+    <t>Deluxe Junior Suite Whirlpool Sea View</t>
+  </si>
+  <si>
+    <t>Vieux-Port Room</t>
+  </si>
+  <si>
+    <t>Business Class Suite</t>
+  </si>
+  <si>
+    <t>Suite with living room and bedroom</t>
+  </si>
+  <si>
+    <t>Interconnecting Family Room</t>
+  </si>
+  <si>
+    <t>Deluxe Suite</t>
+  </si>
+  <si>
+    <t>Standard Room - High Floor</t>
+  </si>
+  <si>
+    <t>1 Queen Bed</t>
+  </si>
+  <si>
+    <t>Deluxe Junior Suite</t>
+  </si>
+  <si>
+    <t>Standard Room - Sea View</t>
+  </si>
+  <si>
+    <t>Premium Room - Aquarium View</t>
+  </si>
+  <si>
+    <t>SUITE</t>
+  </si>
+  <si>
+    <t>Premium Studio-2 Twin Beds</t>
+  </si>
+  <si>
+    <t>Business Class Studio Separate Living Rm</t>
+  </si>
+  <si>
+    <t>Two Bedroom Apartment (4+2)</t>
+  </si>
+  <si>
+    <t>Guest Room Premium</t>
+  </si>
+  <si>
+    <t>2 Queen Beds-Horseshoe Falls View</t>
+  </si>
+  <si>
+    <t>Suite - Burj Khalifa View &amp;amp; Balcony</t>
+  </si>
+  <si>
+    <t>Extended Stay Suite-Queen Bed</t>
+  </si>
+  <si>
+    <t>Double Room-Courtyard</t>
   </si>
   <si>
     <t>Queen Bed-Ocean View</t>
   </si>
   <si>
-    <t>Studio Room</t>
-  </si>
-  <si>
-    <t>Collection Superior Room - Tivoli View</t>
-  </si>
-  <si>
-    <t>Prive Premium</t>
+    <t>Superior Room - Mountain View</t>
+  </si>
+  <si>
+    <t>Duplex Suite</t>
+  </si>
+  <si>
+    <t>Spa Suite - Terrace</t>
+  </si>
+  <si>
+    <t>Ambassador Suite - One King Size Bedroom</t>
+  </si>
+  <si>
+    <t>2 Double Beds-Niagara River View</t>
+  </si>
+  <si>
+    <t>Noble Suite</t>
+  </si>
+  <si>
+    <t>1 Bedroom Suite- King Bed</t>
+  </si>
+  <si>
+    <t>Junior Suite - breakfast included</t>
+  </si>
+  <si>
+    <t>Suite - City View - Accessible</t>
+  </si>
+  <si>
+    <t>King Bed-Queen Bed</t>
+  </si>
+  <si>
+    <t>Business Suite</t>
+  </si>
+  <si>
+    <t>2 Queen Beds with Balcony</t>
+  </si>
+  <si>
+    <t>Executive Room - Runway View &amp;amp; Lounge Acc</t>
+  </si>
+  <si>
+    <t>1 Bedroom Suite-2 Queens</t>
+  </si>
+  <si>
+    <t>Family Room - Airport View</t>
+  </si>
+  <si>
+    <t>1 Bed-Room Standard Apartment</t>
+  </si>
+  <si>
+    <t>2 Bedroom Suite-King Bed-2 Double Beds</t>
   </si>
   <si>
     <t>Hospitality Suite</t>
   </si>
   <si>
-    <t>3 Twin Beds</t>
-  </si>
-  <si>
-    <t>2 Queeen Beds</t>
-  </si>
-  <si>
-    <t>Business Class King Room</t>
-  </si>
-  <si>
-    <t>One Bedroom Apartment Sea View</t>
-  </si>
-  <si>
-    <t>Family 2 connected rooms</t>
-  </si>
-  <si>
-    <t>Single Guest Room with Single Bed</t>
-  </si>
-  <si>
-    <t>Superior class</t>
-  </si>
-  <si>
-    <t>Two Bedroom Suite</t>
-  </si>
-  <si>
-    <t>Executive Twin Studio</t>
-  </si>
-  <si>
-    <t>Standard Room - City View</t>
-  </si>
-  <si>
-    <t>Standard Guest Room-Ocean View</t>
-  </si>
-  <si>
-    <t>Deluxe Room-Breakfast</t>
-  </si>
-  <si>
-    <t>Lagoon View One Bedroom Suite</t>
-  </si>
-  <si>
-    <t>Junior Suite-Sitting Area-Wi-Fi</t>
-  </si>
-  <si>
-    <t>Whirlpool Suite King Bed</t>
-  </si>
-  <si>
-    <t>Queen Bed-Niagara River View</t>
-  </si>
-  <si>
-    <t>Deluxe Room - Free Wifi</t>
-  </si>
-  <si>
-    <t>One Bedroom Superior Suite with Seaview</t>
-  </si>
-  <si>
-    <t>Collection Superior - Pool View</t>
-  </si>
-  <si>
-    <t>Superior Double</t>
-  </si>
-  <si>
-    <t>Superior Room - Fjord View</t>
-  </si>
-  <si>
-    <t>Extended Stay-2 Double Beds</t>
-  </si>
-  <si>
-    <t>Individual Room - Pool Access</t>
-  </si>
-  <si>
-    <t>Economy room</t>
-  </si>
-  <si>
-    <t>Superior Room - Marina View</t>
-  </si>
-  <si>
-    <t>Standard Room - City Harbor View</t>
-  </si>
-  <si>
-    <t>Executive King - Iconic View</t>
-  </si>
-  <si>
-    <t>Queen Bed - Accessible</t>
-  </si>
-  <si>
-    <t>Guest Room</t>
-  </si>
-  <si>
-    <t>SUITE</t>
-  </si>
-  <si>
-    <t>Premium Room - Airfield View</t>
-  </si>
-  <si>
-    <t>Suite - Two Bedrooms</t>
-  </si>
-  <si>
-    <t>Superior Room - Panoramic view</t>
-  </si>
-  <si>
-    <t>2 Bedroom Suite-King Bed-2 Queen Beds</t>
-  </si>
-  <si>
-    <t>Premium Studio Suite-2 Double Beds</t>
-  </si>
-  <si>
-    <t>SUPERIOR ROOM</t>
-  </si>
-  <si>
-    <t>Double Bed - Single Room</t>
-  </si>
-  <si>
-    <t>Classic Room</t>
-  </si>
-  <si>
-    <t>Basic 2 Double Beds</t>
-  </si>
-  <si>
-    <t>Collection Premium Room</t>
-  </si>
-  <si>
-    <t>Studio Suite-2 Queen Bed</t>
-  </si>
-  <si>
-    <t>Interconnecting Family Room</t>
-  </si>
-  <si>
-    <t>Superior Room - High Floor</t>
-  </si>
-  <si>
-    <t>Interconnecting Quad Rooms</t>
-  </si>
-  <si>
-    <t>Penthouse Suite</t>
-  </si>
-  <si>
-    <t>Standard Room Ground Floor</t>
-  </si>
-  <si>
-    <t>Premium Room - 2 Queen Beds</t>
-  </si>
-  <si>
-    <t>Two Bedroom Superior Suite with Seaview</t>
-  </si>
-  <si>
-    <t>Divan Suite</t>
-  </si>
-  <si>
-    <t>Prestige Guest Room</t>
-  </si>
-  <si>
-    <t>Hospitality Suite-2 Double Beds</t>
-  </si>
-  <si>
-    <t>Executive Suite-Breakfast-Living Room</t>
-  </si>
-  <si>
-    <t>Premium Room-Queen Bed</t>
-  </si>
-  <si>
-    <t>Alfesco Suite</t>
-  </si>
-  <si>
-    <t>Suite - Terrace</t>
-  </si>
-  <si>
-    <t>2 King Beds</t>
-  </si>
-  <si>
-    <t>Accessible Suite</t>
-  </si>
-  <si>
-    <t>Suite - Creek View &amp;amp; Lounge Access</t>
+    <t>Junior Suite-Ocean View</t>
+  </si>
+  <si>
+    <t>Full Bed</t>
+  </si>
+  <si>
+    <t>Art Room</t>
+  </si>
+  <si>
+    <t>Suite - Airfield View</t>
+  </si>
+  <si>
+    <t>Standard  Room</t>
+  </si>
+  <si>
+    <t>Junior Suite Park View</t>
+  </si>
+  <si>
+    <t>Bay View Suite - Terrace</t>
+  </si>
+  <si>
+    <t>Premium Room - Oslo Fjord View</t>
+  </si>
+  <si>
+    <t>Royal Club Suite</t>
+  </si>
+  <si>
+    <t>Economy Room  (10 Sq Metres)</t>
+  </si>
+  <si>
+    <t>Premium Room - Fjord &amp;amp; Runway View</t>
+  </si>
+  <si>
+    <t>Premium Room-Queen Bed-Executive Room</t>
+  </si>
+  <si>
+    <t>Standard Studio</t>
+  </si>
+  <si>
+    <t>Business Class-2 Double Beds</t>
+  </si>
+  <si>
+    <t>Collection Superior Room - Copenhagen Sky</t>
+  </si>
+  <si>
+    <t>2 Bedroom Suite-King-2 Double Beds</t>
+  </si>
+  <si>
+    <t>Superior Room - Scandinavian Style</t>
   </si>
   <si>
     <t>King Bed-Whirlpool</t>
   </si>
   <si>
-    <t>Superior Room - balcony</t>
-  </si>
-  <si>
-    <t>BUSINESS SUITE</t>
-  </si>
-  <si>
-    <t>Junior Suite Sea View</t>
-  </si>
-  <si>
-    <t>2 Twin Beds-Non Smoking</t>
-  </si>
-  <si>
-    <t>Premium-2 Queen Beds</t>
-  </si>
-  <si>
-    <t>Executive Room</t>
-  </si>
-  <si>
-    <t>Deluxe Room-Desk-Internet-Arprt Shuttle</t>
-  </si>
-  <si>
     <t>Queen Bed-Non Smoking</t>
   </si>
   <si>
-    <t>Superior Guest Room-Biarritz View</t>
-  </si>
-  <si>
-    <t>Art Room</t>
-  </si>
-  <si>
-    <t>Superior Room - Pool Access</t>
-  </si>
-  <si>
-    <t>Junior Suite - Terrace &amp;amp; Lounge Access</t>
-  </si>
-  <si>
-    <t>Suite - Runway View</t>
-  </si>
-  <si>
-    <t>2 Queen Studio Suite-Oceanfront-Balcony</t>
-  </si>
-  <si>
-    <t>Family Sea view</t>
-  </si>
-  <si>
-    <t>One Bedroom Pennine Suite</t>
-  </si>
-  <si>
-    <t>Deluxe Corner Room</t>
-  </si>
-  <si>
-    <t>Garden View Guest Room</t>
-  </si>
-  <si>
-    <t>Junior Suite with Sea View and  Balcony</t>
-  </si>
-  <si>
-    <t>Premium Queen Bed</t>
-  </si>
-  <si>
-    <t>Junior Suite - Mountain View &amp;amp; Terrace</t>
-  </si>
-  <si>
-    <t>Bridal Suite</t>
-  </si>
-  <si>
-    <t>Junior Suite</t>
-  </si>
-  <si>
-    <t>The Apartment</t>
-  </si>
-  <si>
-    <t>Executive Suite-Living Room-Breakfast</t>
-  </si>
-  <si>
-    <t>Seaview Room</t>
-  </si>
-  <si>
-    <t>Studio Suite-Queen Bed</t>
-  </si>
-  <si>
-    <t>Studio Suite-2 Queenss-Ocean-Non Smoking</t>
-  </si>
-  <si>
-    <t>Collection Superior Room</t>
-  </si>
-  <si>
-    <t>2 Queen Beds-Ocean View</t>
-  </si>
-  <si>
-    <t>Suite - Sea View</t>
-  </si>
-  <si>
-    <t>Executive Room - Balcony &amp;amp; Lounge Access</t>
-  </si>
-  <si>
-    <t>King Bed with Balcony</t>
-  </si>
-  <si>
-    <t>Executive Suite-Airport Transfers-WiFi</t>
-  </si>
-  <si>
-    <t>Superior Guest Room-Ocean View</t>
-  </si>
-  <si>
-    <t>Deluxe Room with City view and Balcony</t>
-  </si>
-  <si>
-    <t>Mall of America Suite</t>
-  </si>
-  <si>
-    <t>Premium Room - Rhinepark View</t>
-  </si>
-  <si>
-    <t>Deluxe River View Room</t>
-  </si>
-  <si>
-    <t>Premium Room-2 Queen Beds</t>
-  </si>
-  <si>
-    <t>Extended Stay-Queen Bed</t>
-  </si>
-  <si>
-    <t>Standard  Room</t>
-  </si>
-  <si>
-    <t>Premium Room - Canal View</t>
-  </si>
-  <si>
-    <t>Studio Suite-2 Double Beds</t>
-  </si>
-  <si>
-    <t>Two Bedroom Suite with Seaview</t>
-  </si>
-  <si>
-    <t>Premium Park View Room</t>
-  </si>
-  <si>
-    <t>Garden View 1 Bedroom Suite</t>
-  </si>
-  <si>
-    <t>TWO ROOM SUITE</t>
-  </si>
-  <si>
-    <t>Premium Room - Sea &amp;amp; Mountain View</t>
-  </si>
-  <si>
-    <t>Premium-King Bed</t>
-  </si>
-  <si>
-    <t>Deluxe Room-Minibar-WiFi</t>
-  </si>
-  <si>
-    <t>Hospitality Room-Murphy Bed</t>
-  </si>
-  <si>
-    <t>BUSINESS FRIENDLY ROOM</t>
-  </si>
-  <si>
-    <t>Premium 1 Bedroom Suite-1 King Bed</t>
-  </si>
-  <si>
-    <t>Premium Suite-3 Twin Beds</t>
-  </si>
-  <si>
-    <t>ONE BEDROOM SUITE</t>
-  </si>
-  <si>
-    <t>Premium Room - Airport View</t>
-  </si>
-  <si>
-    <t>Junior Suite - Creek View &amp;amp; Lounge Access</t>
-  </si>
-  <si>
-    <t>Junior Suite - Square View &amp;amp; Balcony</t>
-  </si>
-  <si>
-    <t>Suite - Square View &amp;amp; Balcony</t>
-  </si>
-  <si>
-    <t>Business Suite</t>
-  </si>
-  <si>
-    <t>Bay View Suite - Terrace</t>
-  </si>
-  <si>
-    <t>Premium Room - Runway View</t>
-  </si>
-  <si>
-    <t>Business Class-2 Queen</t>
-  </si>
-  <si>
-    <t>2 Double Beds-Ocean View</t>
-  </si>
-  <si>
-    <t>Studio Suite-King Bed-Sofabed</t>
-  </si>
-  <si>
-    <t>2 Twin Beds with Balcony</t>
-  </si>
-  <si>
-    <t>Standard Room Garden View</t>
-  </si>
-  <si>
-    <t>Royal Club Room</t>
-  </si>
-  <si>
-    <t>Superior Guest Room Majestic</t>
-  </si>
-  <si>
-    <t>Studio Suite</t>
-  </si>
-  <si>
-    <t>Studio Suite-King Bed-Oceanfront</t>
-  </si>
-  <si>
-    <t>Studio Suite-2 King Size Beds</t>
-  </si>
-  <si>
-    <t>Executive Junior Suite</t>
-  </si>
-  <si>
-    <t>One Bed Room Suite</t>
-  </si>
-  <si>
-    <t>King Bed-Beach View</t>
-  </si>
-  <si>
-    <t>Family Studio with King Bed &amp;amp; Bunk Bed</t>
-  </si>
-  <si>
-    <t>Family Room - Airport View</t>
-  </si>
-  <si>
-    <t>Superior Room - Balcony</t>
-  </si>
-  <si>
-    <t>Business Class Room Sea View</t>
-  </si>
-  <si>
-    <t>Apartment Suite</t>
-  </si>
-  <si>
-    <t>Martinique Club Level Room</t>
-  </si>
-  <si>
-    <t>Crescent Room</t>
-  </si>
-  <si>
-    <t>Superior Room - Lake View</t>
-  </si>
-  <si>
-    <t>JUNIOR SUITE DELUXE</t>
-  </si>
-  <si>
-    <t>Studio-Kitchen-Microwave-Balcony</t>
-  </si>
-  <si>
-    <t>Apartment - Three Bedroom</t>
-  </si>
-  <si>
-    <t>Garden View Room</t>
-  </si>
-  <si>
-    <t>Suite - Panoramic View</t>
-  </si>
-  <si>
-    <t>Presidential Suite - Terrace</t>
-  </si>
-  <si>
-    <t>Harbourside Suite</t>
-  </si>
-  <si>
-    <t>Premium Studio-2 Twin Beds</t>
-  </si>
-  <si>
-    <t>2 Bedroom Suite-King Bed</t>
-  </si>
-  <si>
-    <t>Castle View Suite</t>
-  </si>
-  <si>
-    <t>Business Class-King Bed</t>
-  </si>
-  <si>
-    <t>Standard Room - Runway View</t>
-  </si>
-  <si>
-    <t>Deluxe Residence - One Bedroom</t>
-  </si>
-  <si>
-    <t>Family Room - Panoramic View</t>
-  </si>
-  <si>
-    <t>1 King-Guest Room</t>
-  </si>
-  <si>
-    <t>Aegean Executive Suite Private Pool</t>
-  </si>
-  <si>
-    <t>Superior Room-WiFi</t>
-  </si>
-  <si>
-    <t>Family Stay - 2 Rooms</t>
-  </si>
-  <si>
-    <t>Ruyschen Suite - Canal View</t>
-  </si>
-  <si>
-    <t>Extended Stay Suite-Queen Bed</t>
-  </si>
-  <si>
-    <t>New Amsterdam Suite - Canal View</t>
-  </si>
-  <si>
-    <t>Family Room - Sea View</t>
-  </si>
-  <si>
-    <t>Premium Room - King Bed</t>
-  </si>
-  <si>
-    <t>Apartment - Two Bedroom</t>
-  </si>
-  <si>
-    <t>Studio Sky View with King Bed</t>
-  </si>
-  <si>
-    <t>Signature Suite</t>
-  </si>
-  <si>
-    <t>Petite Room</t>
-  </si>
-  <si>
-    <t>Executive Double Room-River View</t>
-  </si>
-  <si>
-    <t>Reder Suite - Panoramic Fjord View</t>
-  </si>
-  <si>
-    <t>Grand Suite Queen Bed Non-Smoking</t>
-  </si>
-  <si>
-    <t>Whirlpool Room-King Bed</t>
-  </si>
-  <si>
-    <t>Two Bedrooms Suite</t>
-  </si>
-  <si>
-    <t>Sauna Suite Queen Bed Non-Smoking</t>
-  </si>
-  <si>
-    <t>Superior Wheelchair Accessible Room</t>
-  </si>
-  <si>
-    <t>Superior Room - High Floor City View</t>
-  </si>
-  <si>
-    <t>1 Bedroom Apartment Suite-King Bed</t>
-  </si>
-  <si>
-    <t>Studio Whirlpool Suite</t>
-  </si>
-  <si>
-    <t>Superior Room - balcony sea view</t>
-  </si>
-  <si>
-    <t>Golden Horn Panoramic Suite</t>
-  </si>
-  <si>
-    <t>Executive Studio Room</t>
-  </si>
-  <si>
-    <t>Single Room</t>
-  </si>
-  <si>
-    <t>Two Bedroom Executive Suite</t>
-  </si>
-  <si>
-    <t>Premium Room</t>
-  </si>
-  <si>
-    <t>Prermium Room-Queen Bed</t>
-  </si>
-  <si>
-    <t>Superior Room-London Eye View</t>
-  </si>
-  <si>
-    <t>Three Bedroom Suite</t>
-  </si>
-  <si>
-    <t>Superior Room - Mountain View</t>
-  </si>
-  <si>
-    <t>Pool Villa</t>
-  </si>
-  <si>
-    <t>Plaza Club Superior Room</t>
-  </si>
-  <si>
-    <t>art room</t>
-  </si>
-  <si>
-    <t>Family Room- balcony sea view</t>
-  </si>
-  <si>
-    <t>Business Class-Queen Bed</t>
-  </si>
-  <si>
-    <t>Premium Room - Pool View &amp;amp; Balcony</t>
-  </si>
-  <si>
-    <t>Studio Suite-Queen and Full Bed</t>
-  </si>
-  <si>
-    <t>Business Class Studio Separate Living Rm</t>
-  </si>
-  <si>
-    <t>Premium1 Bedroom Suite-2 Queen Beds</t>
-  </si>
-  <si>
-    <t>Twin Premier Room</t>
-  </si>
-  <si>
-    <t>Business Class Suite-Bkfst-Features</t>
-  </si>
-  <si>
-    <t>Standard Room - Airport View</t>
-  </si>
-  <si>
-    <t>Superior Room-atrium view</t>
-  </si>
-  <si>
-    <t>Premium Room Pool View</t>
-  </si>
-  <si>
-    <t>Two Bedroom Apartment</t>
-  </si>
-  <si>
-    <t>One Bedroom Suite</t>
-  </si>
-  <si>
-    <t>Business Class Superior</t>
-  </si>
-  <si>
-    <t>Panoramic Suite</t>
-  </si>
-  <si>
-    <t>One Bedroom Apartment - Balcony</t>
-  </si>
-  <si>
-    <t>Deluxe Room-Pool View/Garden View</t>
-  </si>
-  <si>
-    <t>Lodge Guest Room</t>
-  </si>
-  <si>
-    <t>Royal Suite-King Bed</t>
-  </si>
-  <si>
-    <t>Junior Suite - Marina View</t>
-  </si>
-  <si>
-    <t>2 Bedroom Suite-Queen Bed</t>
-  </si>
-  <si>
-    <t>Premium Room - Pool Access</t>
-  </si>
-  <si>
-    <t>Deluxe Suite Taj Mahal View</t>
-  </si>
-  <si>
-    <t>Superior Room - Pool View</t>
-  </si>
-  <si>
-    <t>Standard Room-Pool View</t>
-  </si>
-  <si>
-    <t>Superior Room-Complimentary Wi-Fi</t>
-  </si>
-  <si>
-    <t>1 Bed-Room Superior Apartment</t>
-  </si>
-  <si>
-    <t>art suite</t>
-  </si>
-  <si>
-    <t>Superior Room-Breakfast-Wi-Fi</t>
-  </si>
-  <si>
-    <t>Superior Room - Sea View</t>
-  </si>
-  <si>
-    <t>Junior Suite - Old Town View</t>
-  </si>
-  <si>
-    <t>2 Queen beds</t>
-  </si>
-  <si>
-    <t>Penthouse Suite-King Bed</t>
-  </si>
-  <si>
-    <t>Studio-King Bed</t>
-  </si>
-  <si>
-    <t>Radisson Club</t>
-  </si>
-  <si>
-    <t>Classic Guest Room-2 Doubles</t>
-  </si>
-  <si>
-    <t>Superior Room King</t>
-  </si>
-  <si>
-    <t>Junior Suite - Lounge Access</t>
-  </si>
-  <si>
-    <t>Business Class-2 Twin Beds</t>
-  </si>
-  <si>
-    <t>Studio Suite-Queen Bed-2 Twin Beds</t>
-  </si>
-  <si>
-    <t>Studio with View &amp;amp; King Bed</t>
-  </si>
-  <si>
-    <t>Junior Suite - Airport View</t>
-  </si>
-  <si>
-    <t>Deluxe Room With Sea View and Balcony</t>
-  </si>
-  <si>
-    <t>Premium 1 Bedroom Suite-King and Queen</t>
-  </si>
-  <si>
-    <t>Deluxe Room</t>
-  </si>
-  <si>
-    <t>Studio Twin Room</t>
-  </si>
-  <si>
-    <t>Standard Room - Troyitska Square View</t>
-  </si>
-  <si>
-    <t>Premium Room 2 Double Beds</t>
-  </si>
-  <si>
-    <t>Superior Executive Suite</t>
-  </si>
-  <si>
-    <t>Deluxe King Room</t>
-  </si>
-  <si>
-    <t>Premium Two Bedroom App (4+2) Sea Side</t>
-  </si>
-  <si>
-    <t>Room with view</t>
-  </si>
-  <si>
-    <t>Superior Room - Countryside View</t>
-  </si>
-  <si>
-    <t>Single guest room</t>
-  </si>
-  <si>
-    <t>Business Class Deluxe</t>
-  </si>
-  <si>
-    <t>Superior Room-Complimentary WiFi</t>
-  </si>
-  <si>
-    <t>Standard room with Breakfast</t>
-  </si>
-  <si>
-    <t>1 Bedroom Suite-King Bed</t>
-  </si>
-  <si>
-    <t>Executive Suite - Park View</t>
-  </si>
-  <si>
-    <t>Residential Suite</t>
-  </si>
-  <si>
-    <t>Duplex Junior Suite</t>
-  </si>
-  <si>
-    <t>EXECUTIVE ROOM</t>
-  </si>
-  <si>
-    <t>Economy Guest Room</t>
-  </si>
-  <si>
-    <t>Standard Balcony/Terrace</t>
-  </si>
-  <si>
-    <t>Two Bedroom Apartment (3+2)</t>
-  </si>
-  <si>
-    <t>Junior Suite - Balcony &amp;amp; Lake View</t>
-  </si>
-  <si>
-    <t>Superior</t>
-  </si>
-  <si>
-    <t>STANDARD ROOM</t>
-  </si>
-  <si>
-    <t>Vieux-Port Room</t>
-  </si>
-  <si>
-    <t>Heritage Suite</t>
-  </si>
-  <si>
-    <t>Business Class Deluxe Suite</t>
-  </si>
-  <si>
-    <t>Superior Room - Mansion Style</t>
-  </si>
-  <si>
-    <t>1 Bdrm Suite-Microw-Fridge-Balcony-WiFi</t>
-  </si>
-  <si>
-    <t>Studio Suite-King-Balcony</t>
-  </si>
-  <si>
-    <t>Art Suite</t>
-  </si>
-  <si>
-    <t>TOP FLOOR SUITE</t>
-  </si>
-  <si>
-    <t>Superior Room - Winetower View</t>
-  </si>
-  <si>
-    <t>Sea View Guest Room</t>
-  </si>
-  <si>
-    <t>Panorama Suite</t>
-  </si>
-  <si>
-    <t>1 Bedroom Suite-King Bed-2 Twin Beds</t>
-  </si>
-  <si>
-    <t>Business Class-2 Queen Beds</t>
-  </si>
-  <si>
-    <t>King Bed-Oceanfront</t>
-  </si>
-  <si>
-    <t>Whirlpool Suite-Hi Speed Net</t>
-  </si>
-  <si>
-    <t>Superior Room-Complimentary Wi-fi</t>
-  </si>
-  <si>
-    <t>Superior Room - Panoramic City View</t>
-  </si>
-  <si>
-    <t>Superior Room - River View</t>
-  </si>
-  <si>
-    <t>Deluxe Room Pool View</t>
-  </si>
-  <si>
-    <t>Duplex One Bedroom Suite</t>
-  </si>
-  <si>
-    <t>1 Bedroom Suite 2 Queens</t>
-  </si>
-  <si>
-    <t>Superior Room - City View &amp;amp; Balcony</t>
-  </si>
-  <si>
-    <t>Premium Room-Breakfast-Wi-Fi</t>
-  </si>
-  <si>
-    <t>Plaza Club Suite</t>
-  </si>
-  <si>
-    <t>Club Room</t>
-  </si>
-  <si>
-    <t>Deluxe Garden View</t>
-  </si>
-  <si>
     <t>Suite - River View</t>
-  </si>
-  <si>
-    <t>Premium Room - Old Town View</t>
-  </si>
-  <si>
-    <t>Premium Room-2 Queen Beds with Balcony</t>
-  </si>
-  <si>
-    <t>King Bed-Queen Bed</t>
-  </si>
-  <si>
-    <t>Deluxe Room City View</t>
-  </si>
-  <si>
-    <t>Premium Suite-King Bed-Queen Bed</t>
-  </si>
-  <si>
-    <t>1 Bedroom King Suite</t>
-  </si>
-  <si>
-    <t>Executive Room - Runway View &amp;amp; Lounge Acc</t>
-  </si>
-  <si>
-    <t>Standard Studio</t>
-  </si>
-  <si>
-    <t>Collection Executive Room - Lounge Access</t>
-  </si>
-  <si>
-    <t>Standard Guest Room</t>
-  </si>
-  <si>
-    <t>Two Bedroom Apartment (4+2)</t>
-  </si>
-  <si>
-    <t>Superior Single Room</t>
-  </si>
-  <si>
-    <t>Diamond Suite-King Bed</t>
-  </si>
-  <si>
-    <t>Junior Suite - King Bed</t>
-  </si>
-  <si>
-    <t>Deluxe Room with Seaview</t>
-  </si>
-  <si>
-    <t>Studio Apartment Sea view</t>
-  </si>
-  <si>
-    <t>Business Room</t>
-  </si>
-  <si>
-    <t>Deluxe Room-Breakfast-Kitchenette</t>
-  </si>
-  <si>
-    <t>1 Bedroom Suite-2 Queens Beds</t>
-  </si>
-  <si>
-    <t>Premium Room-2 Twin Beds-Executive Floor</t>
-  </si>
-  <si>
-    <t>2 Double Beds</t>
-  </si>
-  <si>
-    <t>STANDARD GUEST ROOM</t>
-  </si>
-  <si>
-    <t>Beach Front Family Room</t>
-  </si>
-  <si>
-    <t>Triple Room</t>
-  </si>
-  <si>
-    <t>Business Class Suite</t>
-  </si>
-  <si>
-    <t>King Bed-Exterior Entrance</t>
-  </si>
-  <si>
-    <t>Premium Room-2 Double Beds</t>
-  </si>
-  <si>
-    <t>Business Class Room - breakfast included</t>
-  </si>
-  <si>
-    <t>Guest Room-High Speed Net</t>
-  </si>
-  <si>
-    <t>Executive King Studio</t>
-  </si>
-  <si>
-    <t>DUPLEX SUITE</t>
-  </si>
-  <si>
-    <t>Premium Room - Lake View</t>
-  </si>
-  <si>
-    <t>1 Bedroom Suite- King Bed</t>
-  </si>
-  <si>
-    <t>Hospitality Suite-King Murphy Bed</t>
-  </si>
-  <si>
-    <t>2 Bedroom Suite</t>
-  </si>
-  <si>
-    <t>Double Room</t>
-  </si>
-  <si>
-    <t>Business Class-Studio King Bed</t>
-  </si>
-  <si>
-    <t>Suite - Airfield View</t>
-  </si>
-  <si>
-    <t>Superior Room - City Harbor View</t>
-  </si>
-  <si>
-    <t>Premium King Bed</t>
-  </si>
-  <si>
-    <t>Premium Guest Room - Exclusive Services</t>
-  </si>
-  <si>
-    <t>Superior King Room</t>
-  </si>
-  <si>
-    <t>Superior Room - Airport View</t>
-  </si>
-  <si>
-    <t>Economy Room  (10 Sq Metres)</t>
-  </si>
-  <si>
-    <t>1 Bedroom Suite-King Bed-Queen Bed</t>
-  </si>
-  <si>
-    <t>Studio Suite-1 King Bed</t>
-  </si>
-  <si>
-    <t>Superior Room - Terrace</t>
-  </si>
-  <si>
-    <t>Extended Stay-King Bed</t>
-  </si>
-  <si>
-    <t>Aegean Swim up Pool, Sea View</t>
-  </si>
-  <si>
-    <t>Two Bedroom Duplex Suite</t>
-  </si>
-  <si>
-    <t>1 Bedroon Suite-2 Queen Beds-Oceanfront</t>
-  </si>
-  <si>
-    <t>Royal Mile Suite</t>
-  </si>
-  <si>
-    <t>Junior Suite  - Pool View &amp;amp; Balcony</t>
-  </si>
-  <si>
-    <t>Executive Studio Suite</t>
-  </si>
-  <si>
-    <t>Economy Single Room</t>
-  </si>
-  <si>
-    <t>Standard Room - River View</t>
-  </si>
-  <si>
-    <t>Deluxe Suite</t>
-  </si>
-  <si>
-    <t>Atrium Room-Separate Bath / Shower</t>
-  </si>
-  <si>
-    <t>Standard Room</t>
-  </si>
-  <si>
-    <t>2 Bedroom Suite-2 Queens-King</t>
-  </si>
-  <si>
-    <t>Whirlpool Suite</t>
-  </si>
-  <si>
-    <t>1 Bedroom Suite King</t>
-  </si>
-  <si>
-    <t>Premium Room - Square View &amp;amp; Balcony</t>
-  </si>
-  <si>
-    <t>Sinatra King Suite</t>
-  </si>
-  <si>
-    <t>Business Class King</t>
-  </si>
-  <si>
-    <t>Standard Guest Room with Seaview</t>
-  </si>
-  <si>
-    <t>Junior Suite - City View &amp;amp; Terrace</t>
-  </si>
-  <si>
-    <t>Seaview 2 Bedroom Duplex</t>
-  </si>
-  <si>
-    <t>One Bedroom Spa Suite</t>
-  </si>
-  <si>
-    <t>Business Class Suite-King Bed</t>
-  </si>
-  <si>
-    <t>Studio Suite with separate Bedroom</t>
-  </si>
-  <si>
-    <t>Lagoon Courtyard One Bedroom Suite</t>
-  </si>
-  <si>
-    <t>Suite - Two Bedrooms &amp;amp; Lounge Access</t>
-  </si>
-  <si>
-    <t>Aegean Suite with Private Pool</t>
-  </si>
-  <si>
-    <t>Grand Suite - Balcony &amp;amp; Lounge Access</t>
-  </si>
-  <si>
-    <t>Meeting Suite</t>
-  </si>
-  <si>
-    <t>1 Bedroom Suite-King Bed-Lakeview</t>
-  </si>
-  <si>
-    <t>Skylight Suite</t>
-  </si>
-  <si>
-    <t>Tower Suite</t>
-  </si>
-  <si>
-    <t>Studio 2 Twin Beds</t>
-  </si>
-  <si>
-    <t>Palais Suite</t>
-  </si>
-  <si>
-    <t>Studio Family Room</t>
-  </si>
-  <si>
-    <t>King Bed-Non Smoking</t>
-  </si>
-  <si>
-    <t>Grand Deluxe Room</t>
-  </si>
-  <si>
-    <t>Junior Suite - Panoramic City View</t>
-  </si>
-  <si>
-    <t>Garden View room</t>
-  </si>
-  <si>
-    <t>Polar Suite - Panoramic Fjord View</t>
-  </si>
-  <si>
-    <t>Superior room- Old Town View</t>
-  </si>
-  <si>
-    <t>Premium Room - Sea View &amp;amp; Terrace</t>
-  </si>
-  <si>
-    <t>Lagoon View Two Bedroom Suite</t>
-  </si>
-  <si>
-    <t>Studio 2 Queens</t>
-  </si>
-  <si>
-    <t>Premium Studio Suite-Queen Bed</t>
-  </si>
-  <si>
-    <t>Full Bed</t>
-  </si>
-  <si>
-    <t>Premimum 1 Bedroom Suite-King Bed</t>
-  </si>
-  <si>
-    <t>Junior Suite-Ocean View</t>
-  </si>
-  <si>
-    <t>1 Queen Bed</t>
-  </si>
-  <si>
-    <t>Executive Suite-Living Room-WiFi</t>
-  </si>
-  <si>
-    <t>Superior Room - Old Town View</t>
-  </si>
-  <si>
-    <t>Signature Room</t>
-  </si>
-  <si>
-    <t>Deluxe Executive Suite</t>
-  </si>
-  <si>
-    <t>Studio Suite-2 Twin Beds</t>
-  </si>
-  <si>
-    <t>Superior Room-Balcony</t>
-  </si>
-  <si>
-    <t>Suite - Sea View &amp;amp; Lounge Access</t>
-  </si>
-  <si>
-    <t>Art Room-Iconic View</t>
-  </si>
-  <si>
-    <t>Family Stay - 2 Connecting Rooms</t>
-  </si>
-  <si>
-    <t>Superior Room - Arthur's Seat Hill View</t>
-  </si>
-  <si>
-    <t>Deluxe Courtyard Twin Room</t>
-  </si>
-  <si>
-    <t>Art Suite XL</t>
-  </si>
-  <si>
-    <t>Studio Room-Big Ben View</t>
-  </si>
-  <si>
-    <t>4 Twin Beds</t>
-  </si>
-  <si>
-    <t>Family Stay: 2 Connected Rooms</t>
-  </si>
-  <si>
-    <t>Premium 1 Bedroom Suite-2 Queen Beds</t>
-  </si>
-  <si>
-    <t>Executive Twin Room</t>
-  </si>
-  <si>
-    <t>King Bed Ocean View</t>
-  </si>
-  <si>
-    <t>Deluxe Apartment</t>
-  </si>
-  <si>
-    <t>Standard Room City View</t>
-  </si>
-  <si>
-    <t>Corner Suite with King Bed</t>
-  </si>
-  <si>
-    <t>Friends &amp;amp; Family Stay - Multiple Rooms</t>
-  </si>
-  <si>
-    <t>Superior Room - City View</t>
-  </si>
-  <si>
-    <t>Open Plan Studio</t>
-  </si>
-  <si>
-    <t>Studio Apartment</t>
-  </si>
-  <si>
-    <t>Deluxe King Room - City View</t>
-  </si>
-  <si>
-    <t>Standard Room Riverview</t>
-  </si>
-  <si>
-    <t>1 Bedroom Suite-Queen Bed</t>
-  </si>
-  <si>
-    <t>Deluxe Panorama Room</t>
-  </si>
-  <si>
-    <t>King Bed-Horseshoe Falls View</t>
-  </si>
-  <si>
-    <t>Club Room-Breakfast-Club Lounge</t>
-  </si>
-  <si>
-    <t>Corner Studio</t>
-  </si>
-  <si>
-    <t>Mezzanine Suite - Terrace</t>
-  </si>
-  <si>
-    <t>Four Bedroom Villa</t>
-  </si>
-  <si>
-    <t>Premium Room - Fjord View</t>
-  </si>
-  <si>
-    <t>Whirlpool Suite-King Bed</t>
-  </si>
-  <si>
-    <t>Standard Guest Room Majestic</t>
-  </si>
-  <si>
-    <t>Deluxe Junior Suite</t>
-  </si>
-  <si>
-    <t>Three Bedroom Luxury Suite with Seaview</t>
-  </si>
-  <si>
-    <t>Senior Suite with Sea View and Balcony</t>
-  </si>
-  <si>
-    <t>Deluxe Plaza Room</t>
-  </si>
-  <si>
-    <t>Premium Room - City View</t>
-  </si>
-  <si>
-    <t>Business Friendly</t>
-  </si>
-  <si>
-    <t>Guestroom-Minibar-29 inch TV-Breakfast</t>
-  </si>
-  <si>
-    <t>Guest Room-1 Full</t>
-  </si>
-  <si>
-    <t>King Bed-Riverview</t>
-  </si>
-  <si>
-    <t>Superior Room - Garden View</t>
-  </si>
-  <si>
-    <t>Garden Courtyard Room</t>
-  </si>
-  <si>
-    <t>Apartment - One Bedroom</t>
-  </si>
-  <si>
-    <t>Junior Suite XL</t>
-  </si>
-  <si>
-    <t>Presidential Suite - Sea View</t>
-  </si>
-  <si>
-    <t>Executive Studio-City View</t>
-  </si>
-  <si>
-    <t>Senior Suite</t>
-  </si>
-  <si>
-    <t>Six Bedroom Villa</t>
-  </si>
-  <si>
-    <t>Extended Stay Suite-2 Queen Beds</t>
-  </si>
-  <si>
-    <t>1K- SMK- Deluxe Room</t>
-  </si>
-  <si>
-    <t>Family Room - Sea View &amp;amp; Terrace</t>
-  </si>
-  <si>
-    <t>One Bedroom Apartment with Terrace</t>
-  </si>
-  <si>
-    <t>Single Standard Room</t>
-  </si>
-  <si>
-    <t>Standard Guest Room City Centre View</t>
-  </si>
-  <si>
-    <t>One Bedroom Palace Suite</t>
-  </si>
-  <si>
-    <t>Premium 1 Bedroom Suite-King Bed</t>
-  </si>
-  <si>
-    <t>Queen Bed-Superior Room</t>
-  </si>
-  <si>
-    <t>Junior Suite - Terrace</t>
-  </si>
-  <si>
-    <t>Atlantic Suite</t>
-  </si>
-  <si>
-    <t>Presidential Suite - River View</t>
-  </si>
-  <si>
-    <t>Superior Deluxe Room</t>
-  </si>
-  <si>
-    <t>Family Room - Panoramic view</t>
-  </si>
-  <si>
-    <t>Palace Suite</t>
-  </si>
-  <si>
-    <t>Superior Ocean View</t>
-  </si>
-  <si>
-    <t>art room plus</t>
-  </si>
-  <si>
-    <t>Suite - Burj Khalifa View &amp;amp; Balcony</t>
-  </si>
-  <si>
-    <t>Arabian Suite</t>
-  </si>
-  <si>
-    <t>2 Queen Beds-Lakeview</t>
-  </si>
-  <si>
-    <t>Premium 1 Bedroom Suite King Bed</t>
-  </si>
-  <si>
-    <t>2 Bedroom Suite-King Bed-2 Double Beds</t>
-  </si>
-  <si>
-    <t>Premium Room - Panoramic Fjord View</t>
-  </si>
-  <si>
-    <t>Deluxe Room-Pool view</t>
-  </si>
-  <si>
-    <t>Family Doubleroom</t>
-  </si>
-  <si>
-    <t>Natural Bliss Suite - Balcony</t>
-  </si>
-  <si>
-    <t>1 Bedroom Suite-Queen Beds</t>
-  </si>
-  <si>
-    <t>Premium Room - View</t>
-  </si>
-  <si>
-    <t>1 Bedroom Suite-2 Queen Beds-Ocean View</t>
-  </si>
-  <si>
-    <t>SUPERIOR ROOM-WIRELESS-AIRCO</t>
-  </si>
-  <si>
-    <t>Studio Guest Room</t>
-  </si>
-  <si>
-    <t>Premium Room - Scandinavian Style</t>
-  </si>
-  <si>
-    <t>2 Bedroom Suite-Terrace</t>
-  </si>
-  <si>
-    <t>Garden Courtyard 1 Bedroom Suite</t>
-  </si>
-  <si>
-    <t>Premium Room - Fjord &amp;amp; Runway View</t>
-  </si>
-  <si>
-    <t>Friends &amp;amp; Family Stay: Multiple Rooms</t>
-  </si>
-  <si>
-    <t>Standard Room - Park View</t>
-  </si>
-  <si>
-    <t>Premium Business Class-King Bed</t>
-  </si>
-  <si>
-    <t>Executive Queen Room</t>
-  </si>
-  <si>
-    <t>Paradise Suite</t>
-  </si>
-  <si>
-    <t>Suite - City View - Accessible</t>
-  </si>
-  <si>
-    <t>Atrium Guest Room</t>
-  </si>
-  <si>
-    <t>King Bed-Ocean View</t>
-  </si>
-  <si>
-    <t>Junior Suite - Cathedral View</t>
-  </si>
-  <si>
-    <t>EXECUTIVE ROOM-FREE WIRELESS</t>
-  </si>
-  <si>
-    <t>Suite - One Bedroom</t>
-  </si>
-  <si>
-    <t>ECONOMY SINGLE ROOM</t>
-  </si>
-  <si>
-    <t>1 Bedroom Suite-1 King Bed</t>
-  </si>
-  <si>
-    <t>Studio with View &amp;amp; 2 Twin Beds</t>
-  </si>
-  <si>
-    <t>1 Bedroom Suite-River View</t>
-  </si>
-  <si>
-    <t>Studio Apartment - Balcony</t>
-  </si>
-  <si>
-    <t>Executive Studio-London Eye View</t>
-  </si>
-  <si>
-    <t>Comfort Room</t>
-  </si>
-  <si>
-    <t>Standard Room - Pool View &amp;amp; Balcony</t>
-  </si>
-  <si>
-    <t>Superior Room with Sea view &amp;amp; Terrace</t>
-  </si>
-  <si>
-    <t>Superior Room-Wi-Fi</t>
-  </si>
-  <si>
-    <t>Premium Suite-King Bed</t>
-  </si>
-  <si>
-    <t>Studio King</t>
-  </si>
-  <si>
-    <t>Corner Suite</t>
-  </si>
-  <si>
-    <t>Premium Room - Alster View</t>
-  </si>
-  <si>
-    <t>Junior Suite-Living Room-Club Lounge</t>
-  </si>
-  <si>
-    <t>Premium Room St.Sophia Cathedral View</t>
-  </si>
-  <si>
-    <t>One Bedroom Elite Apartment</t>
-  </si>
-  <si>
-    <t>Suite - Airport View</t>
-  </si>
-  <si>
-    <t>Three Bedroom Apartment</t>
-  </si>
-  <si>
-    <t>Business Class Guest Room</t>
-  </si>
-  <si>
-    <t>Premium Room-2 King Beds</t>
-  </si>
-  <si>
-    <t>Premium1 Bedroom Suite-King Bed</t>
-  </si>
-  <si>
-    <t>King Bed</t>
-  </si>
-  <si>
-    <t>Standard Room - Burj Khalifa View</t>
-  </si>
-  <si>
-    <t>Junior Suite Garden View</t>
-  </si>
-  <si>
-    <t>Suite - Lounge Access</t>
-  </si>
-  <si>
-    <t>Premier Suite</t>
-  </si>
-  <si>
-    <t>Superior Bosphorus Room</t>
-  </si>
-  <si>
-    <t>King Siz-Upgrade Amenities-Sleep Nmbr Bed</t>
-  </si>
-  <si>
-    <t>Superior Beachfront Room</t>
-  </si>
-  <si>
-    <t>Deluxe  Room</t>
-  </si>
-  <si>
-    <t>Superior Room - Panoramic View</t>
-  </si>
-  <si>
-    <t>Standard Room - High Floor</t>
-  </si>
-  <si>
-    <t>Superior Studio Room</t>
-  </si>
-  <si>
-    <t>Luxury One Bedroom Suite</t>
-  </si>
-  <si>
-    <t>Superior Room - Alster View</t>
-  </si>
-  <si>
-    <t>Business Class-King Bed-Ocean View</t>
-  </si>
-  <si>
-    <t>Premium Room with Sea View and Balcony</t>
-  </si>
-  <si>
-    <t>Premium One Bedroom App (2+2) Sea Side</t>
-  </si>
-  <si>
-    <t>Prive Room</t>
-  </si>
-  <si>
-    <t>Suite - Old Town View</t>
-  </si>
-  <si>
-    <t>Premium  Room - Sea View</t>
-  </si>
-  <si>
-    <t>Three Bedroom Apartment Espace</t>
-  </si>
-  <si>
-    <t>Hospitality Suite-King Bed</t>
-  </si>
-  <si>
-    <t>Art Corner Room</t>
-  </si>
-  <si>
-    <t>1 Bdrm Poolside Ste-Fridge-Microwv</t>
-  </si>
-  <si>
-    <t>Standard Room Country View</t>
-  </si>
-  <si>
-    <t>Presidential Suite-King Bed</t>
-  </si>
-  <si>
-    <t>One Bedroom Apartment with Balcony</t>
-  </si>
-  <si>
-    <t>Family Stay - 2Connecting Rooms</t>
-  </si>
-  <si>
-    <t>Superior Corner Room</t>
-  </si>
-  <si>
-    <t>Guest Room-2Q</t>
-  </si>
-  <si>
-    <t>Executive Room-Courtyard</t>
-  </si>
-  <si>
-    <t>Superior Guest Room</t>
-  </si>
-  <si>
-    <t>Executive Suite</t>
-  </si>
-  <si>
-    <t>Extended Stay-2 Queen Beds</t>
-  </si>
-  <si>
-    <t>Presidential Suite</t>
-  </si>
-  <si>
-    <t>Business Class Suite-Living Room-WiFi</t>
-  </si>
-  <si>
-    <t>Executive Room - Lounge Access</t>
-  </si>
-  <si>
-    <t>Junior Suite - Panoramic view</t>
-  </si>
-  <si>
-    <t>Two Bedroom Apartment - Balcony</t>
-  </si>
-  <si>
-    <t>Collection Premium Room - Sea View</t>
-  </si>
-  <si>
-    <t>Townhouse</t>
-  </si>
-  <si>
-    <t>Studio Spa Suite</t>
-  </si>
-  <si>
-    <t>One Bedroom Apartment</t>
-  </si>
-  <si>
-    <t>Junior Suite - River View</t>
-  </si>
-  <si>
-    <t>3 Bedroom Suite Luxury Pool View</t>
-  </si>
-  <si>
-    <t>One Bedroom Apartment Classique</t>
-  </si>
-  <si>
-    <t>Premium Room - Skyline &amp;amp; Lake View</t>
-  </si>
-  <si>
-    <t>Grand Suite - Creek View &amp;amp; Lounge Access</t>
-  </si>
-  <si>
-    <t>2 Bed-Rooms Superior Apartment With River</t>
-  </si>
-  <si>
-    <t>Deluxe One Bed Room Residence Marina View</t>
-  </si>
-  <si>
-    <t>Guest Room-Canal/Bay Vw-Balcony-WiFi</t>
-  </si>
-  <si>
-    <t>Superior Room- Balcony</t>
-  </si>
-  <si>
-    <t>Old Mill Suite</t>
-  </si>
-  <si>
-    <t>Executive Suite Room</t>
-  </si>
-  <si>
-    <t>Sea View Chalet</t>
-  </si>
-  <si>
-    <t>Suite - Panoramic Views &amp;amp; Balcony</t>
-  </si>
-  <si>
-    <t>Standard Plaza View Family Room</t>
-  </si>
-  <si>
-    <t>Executive Level-2 Double beds</t>
-  </si>
-  <si>
-    <t>Suite St.Sophia Cathedral View</t>
-  </si>
-  <si>
-    <t>Deluxe Room-Breakfast-Wi-Fi</t>
-  </si>
-  <si>
-    <t>Bohemian Loft Suite - Balcony</t>
-  </si>
-  <si>
-    <t>2 Queen Beds-Horseshoe Falls View</t>
-  </si>
-  <si>
-    <t>Premium Room - Balcony &amp;amp; Lake View</t>
-  </si>
-  <si>
-    <t>Standard Mountain View</t>
-  </si>
-  <si>
-    <t>Studio Suite-Queen Bed-Twin Beds</t>
-  </si>
-  <si>
-    <t>Studio Sky View with Twin Bed</t>
-  </si>
-  <si>
-    <t>Two Bedroom Chalet</t>
-  </si>
-  <si>
-    <t>2 Bedroom Suite-King Bed-2 Twin Beds</t>
-  </si>
-  <si>
-    <t>Extended Stay Suite-King Bed-1 Queen Beds</t>
-  </si>
-  <si>
-    <t>FAMILY ROOM</t>
-  </si>
-  <si>
-    <t>1 bedroom Suite-2 Queen Beds</t>
-  </si>
-  <si>
-    <t>Business Class room</t>
-  </si>
-  <si>
-    <t>Business Class-2 Double Beds</t>
-  </si>
-  <si>
-    <t>Superior Room</t>
-  </si>
-  <si>
-    <t>Family Suite-King Bed</t>
-  </si>
-  <si>
-    <t>Penthouse - Three Bedroom</t>
-  </si>
-  <si>
-    <t>Standard Room - Creek View &amp;amp; Balcony</t>
-  </si>
-  <si>
-    <t>Studio room-City View</t>
-  </si>
-  <si>
-    <t>2 Queen-Guest Room</t>
-  </si>
-  <si>
-    <t>Suite - Panoramic Fjord View</t>
-  </si>
-  <si>
-    <t>Pres. Suite - Sea View &amp;amp; Lounge Access</t>
-  </si>
-  <si>
-    <t>Queen Bed</t>
-  </si>
-  <si>
-    <t>Business Class Suite-BF-Addtl Features</t>
-  </si>
-  <si>
-    <t>Aegean 2 Bedroom Suite</t>
-  </si>
-  <si>
-    <t>2 Bedroom Suite-King Bed-Queen Bed</t>
-  </si>
-  <si>
-    <t>Superior Room - Terminal Vibe</t>
-  </si>
-  <si>
-    <t>2-Bedroom Lodge Apartment with Kitchen</t>
-  </si>
-  <si>
-    <t>2 Room Suite-King Bed-2 Queen Beds</t>
-  </si>
-  <si>
-    <t>Studio Twin</t>
-  </si>
-  <si>
-    <t>Studio Suite with separate bedroom</t>
-  </si>
-  <si>
-    <t>1 Bedroom Suite-2 Queens</t>
-  </si>
-  <si>
-    <t>2 Double Beds-Riverview</t>
-  </si>
-  <si>
-    <t>Luxury Guest Room</t>
-  </si>
-  <si>
-    <t>Whirlpool suite</t>
-  </si>
-  <si>
-    <t>Deluxe King Room - View of Square</t>
-  </si>
-  <si>
-    <t>Single Guest Room</t>
-  </si>
-  <si>
-    <t>Junior Suite Majestic</t>
-  </si>
-  <si>
-    <t>Presidental Suite</t>
-  </si>
-  <si>
-    <t>Queen Suite</t>
-  </si>
-  <si>
-    <t>Premium Room - Garden View</t>
-  </si>
-  <si>
-    <t>2 Double Beds-Non Smoking</t>
-  </si>
-  <si>
-    <t>2 Bedroom Suite-2 King Beds</t>
-  </si>
-  <si>
-    <t>Studio Suite-2 King Beds</t>
-  </si>
-  <si>
-    <t>King Bed Queen Bed</t>
-  </si>
-  <si>
-    <t>Plaza Room</t>
-  </si>
-  <si>
-    <t>Premium Room - Sea View</t>
-  </si>
-  <si>
-    <t>1 Bedroom Suite King Bed</t>
-  </si>
-  <si>
-    <t>Executive Suite-Living Room-Pool view</t>
-  </si>
-  <si>
-    <t>Collection Room</t>
-  </si>
-  <si>
-    <t>1Bdrm Ste-Rivervw--Living Rm</t>
-  </si>
-  <si>
-    <t>2 Bed-Rooms Standard Apartment</t>
-  </si>
-  <si>
-    <t>Superior Beachfront</t>
-  </si>
-  <si>
-    <t>Superior Garden View</t>
-  </si>
-  <si>
-    <t>Guest Room-Balcony-Rainforest-Golf View</t>
-  </si>
-  <si>
-    <t>Superior Twin Room</t>
-  </si>
-  <si>
-    <t>Studio King Bed</t>
-  </si>
-  <si>
-    <t>King Room</t>
-  </si>
-  <si>
-    <t>Suite - Lake View</t>
-  </si>
-  <si>
-    <t>River view Guest Room</t>
-  </si>
-  <si>
-    <t>Art Room-Rhine View</t>
-  </si>
-  <si>
-    <t>Executive Level-1 King</t>
-  </si>
-  <si>
-    <t>Corner Studio with King Bed</t>
-  </si>
-  <si>
-    <t>Business Class Lagoon View</t>
-  </si>
-  <si>
-    <t>Standard Room - Balcony</t>
-  </si>
-  <si>
-    <t>Superior Room-City Hall Facing-Free Wi-Fi</t>
-  </si>
-  <si>
-    <t>Plaza Club Room</t>
-  </si>
-  <si>
-    <t>Premium Whirlpool Suite-King Bed</t>
-  </si>
-  <si>
-    <t>Deluxe Residence - Two Bedroom</t>
-  </si>
-  <si>
-    <t>Suite</t>
-  </si>
-  <si>
-    <t>1 Bedrooms Suite-King Bed</t>
-  </si>
-  <si>
-    <t>Superior Room-King Bed-Internet</t>
-  </si>
-  <si>
-    <t>Garden Courtyard Two Bedroom Suite</t>
-  </si>
-  <si>
-    <t>One Bedroom Chalet</t>
-  </si>
-  <si>
-    <t>Premium1 Bedroom Suite-Queen Bed</t>
-  </si>
-  <si>
-    <t>Superior King - Iconic View</t>
-  </si>
-  <si>
-    <t>Twin Room</t>
-  </si>
-  <si>
-    <t>Guest Room-1 King</t>
-  </si>
-  <si>
-    <t>Garden view Family Room</t>
-  </si>
-  <si>
-    <t>Mediterranean Suite</t>
-  </si>
-  <si>
-    <t>Studio Suite-2 Queen Beds</t>
-  </si>
-  <si>
-    <t>Deluxe Junior Suite Sea View</t>
-  </si>
-  <si>
-    <t>Premium Studio King Bed</t>
-  </si>
-  <si>
-    <t>Noble Suite</t>
-  </si>
-  <si>
-    <t>1 Bedroom Suite</t>
-  </si>
-  <si>
-    <t>Guest Room 2 Queens</t>
-  </si>
-  <si>
-    <t>1 Bed-Room Superior Apartment With River</t>
-  </si>
-  <si>
-    <t>2 Queen Beds</t>
-  </si>
-  <si>
-    <t>Single room with Double Bed</t>
-  </si>
-  <si>
-    <t>Colour Suite</t>
-  </si>
-  <si>
-    <t>Superior room</t>
-  </si>
-  <si>
-    <t>Studio Suite-2 Double-Balcony</t>
-  </si>
-  <si>
-    <t>2 Bedroom Suite Pool View</t>
-  </si>
-  <si>
-    <t>2 Bedroom Suite-King-2 Double Beds</t>
-  </si>
-  <si>
-    <t>Executive Twin - Iconic View</t>
-  </si>
-  <si>
-    <t>Executive Class-King Bed</t>
-  </si>
-  <si>
-    <t>2 Bedroom Suite-Queen Bed-2 Twin Beds</t>
-  </si>
-  <si>
-    <t>Business Class Room with Sea View</t>
-  </si>
-  <si>
-    <t>Princely Suite</t>
-  </si>
-  <si>
-    <t>Radisson Club Guest Room</t>
-  </si>
-  <si>
-    <t>Junior Suite - Garden View</t>
-  </si>
-  <si>
-    <t>Studio Suite-King Bed-Non Smoking</t>
-  </si>
-  <si>
-    <t>Standard Room - Panoramic City View</t>
-  </si>
-  <si>
-    <t>Premium Suite-2 Double Beds</t>
-  </si>
-  <si>
-    <t>2 Queen Beds-Non Smoking</t>
-  </si>
-  <si>
-    <t>Studio with 2 Twin Beds</t>
-  </si>
-  <si>
-    <t>Superior Room With City View</t>
-  </si>
-  <si>
-    <t>Two Bedroom Pennine Suite</t>
-  </si>
-  <si>
-    <t>Premium Suite-2 Queen Beds</t>
-  </si>
-  <si>
-    <t>Art Panorama Room-Harbour View</t>
-  </si>
-  <si>
-    <t>Monaco King Suite</t>
-  </si>
-  <si>
-    <t>Guest Room-Broadband Access</t>
-  </si>
-  <si>
-    <t>Penthouse</t>
-  </si>
-  <si>
-    <t>Radisson Suite</t>
-  </si>
-  <si>
-    <t>2 Double Beds-Niagara River View</t>
-  </si>
-  <si>
-    <t>Presidential Suite - Lounge Access</t>
-  </si>
-  <si>
-    <t>Business Class-King Bed-Breakfast-NSK</t>
-  </si>
-  <si>
-    <t>Business Class Room Mountain View</t>
-  </si>
-  <si>
-    <t>Junior Suite - Sea View</t>
-  </si>
-  <si>
-    <t>1 Bedroom Suite-King bed</t>
-  </si>
-  <si>
-    <t>Pool View Chalet</t>
-  </si>
-  <si>
-    <t>Classic Suite</t>
-  </si>
-  <si>
-    <t>Noble Junior Suite</t>
-  </si>
-  <si>
-    <t>King Junior Suite</t>
-  </si>
-  <si>
-    <t>Cabana</t>
-  </si>
-  <si>
-    <t>Junior Suite Park View</t>
-  </si>
-  <si>
-    <t>Executive Suite-Airport Transfers-W-Fi</t>
-  </si>
-  <si>
-    <t>Studio</t>
-  </si>
-  <si>
-    <t>1 Bedroom Family Suite-King Bed</t>
-  </si>
-  <si>
-    <t>Premium Room - Cathedral View &amp;amp; Balcony</t>
-  </si>
-  <si>
-    <t>Superior Balcony/Terrace</t>
-  </si>
-  <si>
-    <t>Sea View Villa</t>
-  </si>
-  <si>
-    <t>Superior Room - Runway View</t>
-  </si>
-  <si>
-    <t>Superior Room - Park View</t>
-  </si>
-  <si>
-    <t>Double Room-Courtyard</t>
-  </si>
-  <si>
-    <t>Deluxe Room- Hill View</t>
-  </si>
-  <si>
-    <t>Royal Club Suite</t>
-  </si>
-  <si>
-    <t>Superior Double Room</t>
-  </si>
-  <si>
-    <t>Family Interconnecting Room</t>
-  </si>
-  <si>
-    <t>Deluxe Studio</t>
-  </si>
-  <si>
-    <t>Art Room-Danube View</t>
-  </si>
-  <si>
-    <t>Business Class Room-Aiport Transfer-WiFi</t>
-  </si>
-  <si>
-    <t>Premium Studio Suite-King Bed</t>
-  </si>
-  <si>
-    <t>Junior Suite - Panoramic Old Town View</t>
-  </si>
-  <si>
-    <t>Executive Guestroom-High Floor-Breakfast</t>
-  </si>
-  <si>
-    <t>Classic Room 2 Queen Beds</t>
-  </si>
-  <si>
-    <t>Family room</t>
-  </si>
-  <si>
-    <t>Family 2 Bedroom Suite</t>
-  </si>
-  <si>
-    <t>Alpine Suite</t>
-  </si>
-  <si>
-    <t>Guest Room-Queen</t>
-  </si>
-  <si>
-    <t>Superior Room-Wi-Fi-Breakfast</t>
-  </si>
-  <si>
-    <t>One Bedroom Suite with Seaview</t>
-  </si>
-  <si>
-    <t>Executive Suite-WiFi-Airport Transfers</t>
-  </si>
-  <si>
-    <t>Art Twin Room-Free Wi-Fi</t>
-  </si>
-  <si>
-    <t>Standard room with limited view</t>
-  </si>
-  <si>
-    <t>Guest Room-Breakfast Buffet-WiFi</t>
-  </si>
-  <si>
-    <t>Business Class Executive Corner</t>
-  </si>
-  <si>
-    <t>Business Class Junior Suite</t>
-  </si>
-  <si>
-    <t>Two Bedroom Suite-Garden View</t>
-  </si>
-  <si>
-    <t>Martinique Club Level Rm-2 Queens</t>
-  </si>
-  <si>
-    <t>1 Bedroom Suite-King Bed-Ocean View</t>
-  </si>
-  <si>
-    <t>Karim Rashid Suite</t>
-  </si>
-  <si>
-    <t>Sea View Room</t>
-  </si>
-  <si>
-    <t>Superior Room-Balcony Pool View</t>
-  </si>
-  <si>
-    <t>Business Suite-King Bed</t>
-  </si>
-  <si>
-    <t>Guest Room Premium</t>
-  </si>
-  <si>
-    <t>Studio Suite-King Bed</t>
-  </si>
-  <si>
-    <t>SINGLE GUEST ROOM</t>
-  </si>
-  <si>
-    <t>2-Bedroom Family Apartment with Kitchen</t>
-  </si>
-  <si>
-    <t>Maisonette Suite</t>
-  </si>
-  <si>
-    <t>Terrace Suite</t>
-  </si>
-  <si>
-    <t>Business Class 1 Bedroom Suite</t>
-  </si>
-  <si>
-    <t>Deluxe Junior Suite Whirlpool Sea View</t>
-  </si>
-  <si>
-    <t>Deluxe Room Taj Mahal View</t>
-  </si>
-  <si>
-    <t>Honeymoon Suite</t>
-  </si>
-  <si>
-    <t>1 Bedroom Suite-King Bed-Sofabed</t>
-  </si>
-  <si>
-    <t>Premium Room- Panoramic lake &amp;amp; City View</t>
-  </si>
-  <si>
-    <t>Suite Balcony</t>
-  </si>
-  <si>
-    <t>Club Regency Room</t>
-  </si>
-  <si>
-    <t>1 Bedroom Suite-2 Queen Queens</t>
-  </si>
-  <si>
-    <t>Junior Suite - City View</t>
-  </si>
-  <si>
-    <t>Studio Suite-King and Queen Bed</t>
-  </si>
-  <si>
-    <t>Studio Suite-Breakfast-Airport transfers</t>
-  </si>
-  <si>
-    <t>1 Bedroom Premier Suite</t>
-  </si>
-  <si>
-    <t>Sea View Family Room</t>
-  </si>
-  <si>
-    <t>One Bedroom Suite-Balcony</t>
-  </si>
-  <si>
-    <t>Studio Deluxe</t>
-  </si>
-  <si>
-    <t>Business Class Room-King Bed</t>
-  </si>
-  <si>
-    <t>JUNIOR SUITE</t>
-  </si>
-  <si>
-    <t>Individual Room</t>
-  </si>
-  <si>
-    <t>Junior Suite - Sauna</t>
-  </si>
-  <si>
-    <t>King Bed-Lakeview</t>
-  </si>
-  <si>
-    <t>Guest Room King</t>
-  </si>
-  <si>
-    <t>Whirlpool Fantasy Suite-Queen Bed</t>
-  </si>
-  <si>
-    <t>Premium Room New Style</t>
-  </si>
-  <si>
-    <t>Guest Room-Internet-Poolside</t>
-  </si>
-  <si>
-    <t>Superior Room - Lake &amp;amp; City View</t>
-  </si>
-  <si>
-    <t>Standard Double Room</t>
-  </si>
-  <si>
-    <t>Premium Room-King Bed</t>
-  </si>
-  <si>
-    <t>Deluxe Room-Wi-Fi</t>
-  </si>
-  <si>
-    <t>Executive King Room</t>
-  </si>
-  <si>
-    <t>Superior Room - Slope View</t>
-  </si>
-  <si>
-    <t>Italian Guest Room</t>
-  </si>
-  <si>
-    <t>Classic Garden View Room</t>
-  </si>
-  <si>
-    <t>Club Suite</t>
-  </si>
-  <si>
-    <t>Royal Suite-King Bed Ocean View</t>
-  </si>
-  <si>
-    <t>Premium Room- King Bed</t>
-  </si>
-  <si>
-    <t>Superior Suite</t>
-  </si>
-  <si>
-    <t>Premium Room - Panoramic Old Town View</t>
-  </si>
-  <si>
-    <t>Premier Room</t>
-  </si>
-  <si>
-    <t>Premium King-Sofabed</t>
-  </si>
-  <si>
-    <t>Collection Premium Room - Corner</t>
-  </si>
-  <si>
-    <t>Deluxe Panoramic View</t>
-  </si>
-  <si>
-    <t>Business Friendly Room</t>
-  </si>
-  <si>
-    <t>ONE BEDROOM EXECUTIVE SUITE</t>
-  </si>
-  <si>
-    <t>Family Stay: 2 Connected Rooms-City View</t>
-  </si>
-  <si>
-    <t>Royal Suite - Lounge Access</t>
-  </si>
-  <si>
-    <t>Double Bed</t>
-  </si>
-  <si>
-    <t>Junior Suite - Historical City View</t>
-  </si>
-  <si>
-    <t>Premium Room - Park View</t>
-  </si>
-  <si>
-    <t>Premium Studio Suite-2 Queen Beds</t>
-  </si>
-  <si>
-    <t>Seaview One Bedroom Suite</t>
-  </si>
-  <si>
-    <t>Deluxe Room-Wi-Fi-Sofa Bed</t>
-  </si>
-  <si>
-    <t>Ambassador Suite - One King Size Bedroom</t>
-  </si>
-  <si>
-    <t>Grand Suite - Lounge Access</t>
-  </si>
-  <si>
-    <t>Studio Double Room</t>
-  </si>
-  <si>
-    <t>Classic Guest Room</t>
-  </si>
-  <si>
-    <t>Superior Guest Rooms</t>
-  </si>
-  <si>
-    <t>Panoramic Suite - Marina View</t>
-  </si>
-  <si>
-    <t>3-Bedroom Lodge Apartment with Kitchen</t>
-  </si>
-  <si>
-    <t>Four Bedroom Suite</t>
-  </si>
-  <si>
-    <t>Suite with Sauna</t>
-  </si>
-  <si>
-    <t>Collection Superior Room - Copenhagen Sky</t>
-  </si>
-  <si>
-    <t>Standard Room - Terrace</t>
-  </si>
-  <si>
-    <t>Deluxe King-River View</t>
-  </si>
-  <si>
-    <t>Whirlpool Suite-Queen Bed</t>
-  </si>
-  <si>
-    <t>Family Room Mountain View</t>
-  </si>
-  <si>
-    <t>Executive Double Room</t>
-  </si>
-  <si>
-    <t>Premium Room - Balcony</t>
-  </si>
-  <si>
-    <t>Two Bedroom Suite - Two Bathrooms</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>Superior Queen Room</t>
-  </si>
-  <si>
-    <t>Two Bedroom Apartment Classique</t>
-  </si>
-  <si>
-    <t>Premier Suite West Wing</t>
-  </si>
-  <si>
-    <t>Extended Stay Suite-1 King Bed</t>
-  </si>
-  <si>
-    <t>Studio suite</t>
-  </si>
-  <si>
-    <t>Junior Suite - 2 Twin Beds</t>
-  </si>
-  <si>
-    <t>Whirlpool Suite-2 Queen Beds</t>
-  </si>
-  <si>
-    <t>Superior Room - Creek View &amp;amp; Balcony</t>
-  </si>
-  <si>
-    <t>Duplex Suite</t>
-  </si>
-  <si>
-    <t>Royal Suite</t>
-  </si>
-  <si>
-    <t>Executive Suite View Lounge Access</t>
-  </si>
-  <si>
-    <t>Family Room - Fjord &amp;amp; Runway View</t>
-  </si>
-  <si>
-    <t>Premium 2 Queen Beds</t>
-  </si>
-  <si>
-    <t>One Bedroom Suite Sea View</t>
-  </si>
-  <si>
-    <t>Park View Suite</t>
-  </si>
-  <si>
-    <t>Premium Room-King Bed-Lakeview</t>
-  </si>
-  <si>
-    <t>Premium Room - Roof Top View</t>
-  </si>
-  <si>
-    <t>Suite with living room and bedroom</t>
-  </si>
-  <si>
-    <t>Boardwalk Empire King Suite</t>
-  </si>
-  <si>
-    <t>Whirlpool Ste-Canal/Bay Vw-Fridge-Microwv</t>
-  </si>
-  <si>
-    <t>Suite-River View</t>
-  </si>
-  <si>
-    <t>Standard Room - Sea View</t>
-  </si>
-  <si>
-    <t>Ambassador Suite</t>
-  </si>
-  <si>
-    <t>2 Quee Beds</t>
-  </si>
-  <si>
-    <t>King/ Twin Superior Room</t>
-  </si>
-  <si>
-    <t>Sea View Suite - Terrace</t>
-  </si>
-  <si>
-    <t>Premium Room-Queen Bed-Executive Room</t>
-  </si>
-  <si>
-    <t>Premium Room - Terrace</t>
-  </si>
-  <si>
-    <t>Bosphorus Terrace Suite</t>
-  </si>
-  <si>
-    <t>2 Full Beds</t>
-  </si>
-  <si>
-    <t>Aegean Royal Villa Private Pool, Sea View</t>
-  </si>
-  <si>
-    <t>Premium Room-King Bed-Oceanfront</t>
-  </si>
-  <si>
-    <t>One Bedroom suite</t>
-  </si>
-  <si>
-    <t>Apartment</t>
-  </si>
-  <si>
-    <t>Premium Suite-1 King</t>
-  </si>
-  <si>
-    <t>Standard Single Room</t>
-  </si>
-  <si>
-    <t>One Bedroom Plaza Suite</t>
-  </si>
-  <si>
-    <t>Extended Stay Suite-King Bed</t>
-  </si>
-  <si>
-    <t>Executive Business Class</t>
-  </si>
-  <si>
-    <t>Junior Suite - Pool Access</t>
-  </si>
-  <si>
-    <t>Sea View Royal Suite</t>
-  </si>
-  <si>
-    <t>ECONOMY ROOM</t>
-  </si>
-  <si>
-    <t>Standard Chalet</t>
-  </si>
-  <si>
-    <t>Junior Suite-Biarritz View</t>
-  </si>
-  <si>
-    <t>Deluxe Business Class Room</t>
-  </si>
-  <si>
-    <t>Cosy Small Room</t>
-  </si>
-  <si>
-    <t>Grand Plaza Room</t>
-  </si>
-  <si>
-    <t>Suite with Balcony</t>
-  </si>
-  <si>
-    <t>Sea View Suite</t>
-  </si>
-  <si>
-    <t>Deluxe Island Pool Villa</t>
-  </si>
-  <si>
-    <t>1 Bedrm Exec Suite-Living Rm-Breakfast</t>
-  </si>
-  <si>
-    <t>Junior Suite - breakfast included</t>
-  </si>
-  <si>
-    <t>Urban Retro Suite - Balcony</t>
-  </si>
-  <si>
-    <t>Grand Premier Room</t>
-  </si>
-  <si>
-    <t>Premium Room-3 Twin Beds</t>
-  </si>
-  <si>
-    <t>Premium Room-King Bed Ocean View</t>
-  </si>
-  <si>
-    <t>Presidential Suite - Cathedral View</t>
-  </si>
-  <si>
-    <t>Premium Studio-King Bed</t>
-  </si>
-  <si>
-    <t>One Bedroom Ocean View Suite</t>
-  </si>
-  <si>
-    <t>Premium Corner Room-King Bed with Balcony</t>
-  </si>
-  <si>
-    <t>Deluxe Room-Breakfast-WiFi-Gym</t>
-  </si>
-  <si>
-    <t>Deluxe Suite-Living Room-Wi-Fi</t>
-  </si>
-  <si>
-    <t>Executive Double</t>
-  </si>
-  <si>
-    <t>Premium Room - Panoramic City View</t>
-  </si>
-  <si>
-    <t>1 Bedroom Plaza Suite-King Bed</t>
-  </si>
-  <si>
-    <t>Superior Room - Scandinavian Style</t>
-  </si>
-  <si>
-    <t>Premium One Bedroom App (2+2)</t>
-  </si>
-  <si>
-    <t>Deluxe Pure White Room</t>
-  </si>
-  <si>
-    <t>Premium Room - Aquarium View</t>
-  </si>
-  <si>
-    <t>Premium Room - High Floor</t>
-  </si>
-  <si>
-    <t>Standard Room - Pool Access</t>
-  </si>
-  <si>
-    <t>Superior Room - Panoramic Monts d'Or View</t>
-  </si>
-  <si>
-    <t>Family Sea View Room</t>
-  </si>
-  <si>
-    <t>Studio Suite - King Bed</t>
-  </si>
-  <si>
-    <t>2 Queen Beds-Niagara River View</t>
-  </si>
-  <si>
-    <t>Business Class Rooms</t>
-  </si>
-  <si>
-    <t>Suite - Panoramic Sea View</t>
-  </si>
-  <si>
-    <t>Deluxe Superior Room</t>
-  </si>
-  <si>
-    <t>Deluxe Two Bed Room Residence Marina View</t>
-  </si>
-  <si>
-    <t>Premium 2 Double Beds</t>
-  </si>
-  <si>
-    <t>Studio room</t>
-  </si>
-  <si>
-    <t>Art Room-Castle View</t>
-  </si>
-  <si>
-    <t>Executive Suite-Living Room-Wi-Fi</t>
-  </si>
-  <si>
-    <t>Premium Room - Panoramic View</t>
-  </si>
-  <si>
-    <t>Whirlpool Fantasy Suite-King Bed</t>
-  </si>
-  <si>
-    <t>2 Queen Bed</t>
-  </si>
-  <si>
-    <t>Family Rooms</t>
-  </si>
-  <si>
-    <t>Deluxe Room-Railway Station Transfer-Wi-F</t>
-  </si>
-  <si>
-    <t>Premium Suite with Sea View and Terrace</t>
-  </si>
-  <si>
-    <t>Executive room</t>
-  </si>
-  <si>
-    <t>Business Class Room-Lake View</t>
-  </si>
-  <si>
-    <t>Junior Suite - Runway View</t>
-  </si>
-  <si>
-    <t>Premium 1 Bedroom Suite-2 Double Beds</t>
-  </si>
-  <si>
-    <t>2 Bedroom Suite-King Bed-Full Size Bed</t>
-  </si>
-  <si>
-    <t>Superior Room - sea view</t>
-  </si>
-  <si>
-    <t>Family Room</t>
-  </si>
-  <si>
-    <t>2 Bedroom Suite-3 Queen Beds</t>
-  </si>
-  <si>
-    <t>DELUXE SUITE</t>
-  </si>
-  <si>
-    <t>Studio Suite with King Bed</t>
-  </si>
-  <si>
-    <t>2 Queen Beds with Balcony</t>
-  </si>
-  <si>
-    <t>Lagoon View Room</t>
-  </si>
-  <si>
-    <t>Premium Room - Oslo Fjord View</t>
-  </si>
-  <si>
-    <t>Spa Suite - Terrace</t>
-  </si>
-  <si>
-    <t>Premium Room - Skyline View</t>
-  </si>
-  <si>
-    <t>Deluxe Sea View Room</t>
-  </si>
-  <si>
-    <t>Suite - Balcony &amp;amp; Whirlpool</t>
-  </si>
-  <si>
-    <t>Standard Room with Breakfast</t>
-  </si>
-  <si>
-    <t>1 Bed-Room Standard Apartment</t>
-  </si>
-  <si>
-    <t>Diplomatic Suite</t>
-  </si>
-  <si>
-    <t>Premium room</t>
-  </si>
-  <si>
-    <t>Quadruple Room</t>
-  </si>
-  <si>
-    <t>Studio Suite-Queen Bed-Executive Suite</t>
-  </si>
-  <si>
-    <t>Standard Room-Sea Side</t>
-  </si>
-  <si>
-    <t>Family Suite</t>
-  </si>
-  <si>
-    <t>CASPIAN GUEST ROOM</t>
-  </si>
-  <si>
-    <t>2 Double Beds-Oceanfront</t>
-  </si>
-  <si>
-    <t>2 Twin Beds</t>
-  </si>
-  <si>
-    <t>Deluxe Class Room</t>
-  </si>
-  <si>
-    <t>Art Room XL</t>
   </si>
 </sst>
 </file>
